--- a/data/results/daily_model/daily_model_results.xlsx
+++ b/data/results/daily_model/daily_model_results.xlsx
@@ -532,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Correlation</t>
+          <t>Cross-Correlation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Pearson Correlation (need to stationarize)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>P-value</t>
         </is>
       </c>
     </row>
@@ -555,8 +565,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.0192 </t>
-        </is>
+          <t>[-0.01917053  0.0320736   0.00784283 ... -0.00076627 -0.00073163
+ -0.00051013]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.01917053242305668</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4896484964775462</v>
       </c>
     </row>
     <row r="3">
@@ -567,8 +584,117 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.0803 </t>
-        </is>
+          <t>[-8.03237920e-02 -7.00626794e-03  4.60305647e-02 -2.91850154e-02
+  8.34717842e-02  2.37437191e-02  3.16320812e-02 -4.36665077e-02
+  2.28476445e-02 -2.60681226e-03 -1.42085707e-02 -3.29859861e-02
+  2.35130852e-03  4.89499439e-02  5.01481210e-02 -1.79112702e-02
+ -5.66432072e-03 -1.89487781e-02  5.73636718e-02  5.63039886e-02
+ -5.83089518e-02  1.00132367e-02 -8.32454750e-03  3.96870413e-02
+  6.29890712e-02  4.18272711e-03  7.95335529e-02 -1.29864158e-02
+  2.14110546e-02  2.66287283e-02  8.81890790e-02  6.06183908e-03
+ -8.53113406e-03 -1.78251786e-02  8.75480990e-03  9.53786542e-03
+ -6.09492446e-02  1.89695245e-02 -6.59802996e-02  3.44944911e-02
+ -4.33263488e-03 -2.54272231e-02  7.20172792e-03 -8.58988804e-03
+  4.40489078e-02  2.46985310e-02  7.85394480e-02  3.50188608e-02
+  4.02415482e-02 -5.17577090e-02 -2.82131762e-03 -1.36955880e-02
+ -9.03567034e-02 -2.21816735e-02 -2.05777641e-02 -8.50234824e-02
+  2.06061725e-02 -5.07695192e-02 -3.08362667e-02 -3.84111299e-02
+ -3.00801001e-02  1.48345451e-02  1.60898586e-02  6.27446336e-02
+  3.84264113e-02  8.35309462e-03  3.73531678e-02  5.14210646e-02
+ -4.59632181e-02 -1.02005903e-01 -9.35559365e-02 -5.91368440e-02
+ -3.16279723e-02 -4.40771833e-02  2.70569595e-02  6.73876120e-03
+  5.47256368e-02  4.42703628e-03  3.96841998e-02 -6.24261970e-02
+  6.65385626e-03 -1.10957882e-03 -3.21334508e-02  3.41780741e-02
+ -5.20300948e-03  8.85321627e-02 -4.03074077e-02 -8.14119690e-02
+ -4.85293549e-02  1.00493516e-01 -1.15176778e-01  5.91263428e-02
+ -6.23214348e-02  1.43945168e-02  7.14073668e-02 -4.53670478e-02
+  9.59018433e-04 -3.04474561e-02 -2.57333088e-02  1.00734045e-02
+ -1.01280206e-02 -1.87221390e-02  3.99872984e-03 -1.00258722e-02
+ -6.18104792e-04 -8.58320986e-02 -1.63360548e-02  6.33233926e-02
+ -3.81638256e-02  2.07681378e-02 -4.68942979e-02 -1.99164256e-02
+ -2.02405878e-02  2.76961251e-02 -6.80090414e-02  2.68923751e-02
+  9.83089671e-02 -7.40379059e-02 -3.37210550e-02  5.11524809e-03
+  1.14317236e-02  6.63680382e-03 -2.35468825e-02  4.82284019e-03
+  2.68348735e-02  4.94395347e-02 -7.52148845e-02  5.98521573e-02
+  9.96059901e-03  7.94453641e-02 -6.90847815e-02 -2.88511056e-03
+ -4.21368873e-02  2.80425865e-02  9.17901900e-02 -3.38230969e-02
+ -1.30207285e-02  4.81240664e-02  4.64705481e-02  7.92459378e-02
+  4.27094148e-02  3.73305634e-02  2.44991938e-02  3.84565187e-02
+ -2.73783477e-02 -6.85357870e-02  1.01961983e-02 -5.98283741e-02
+  2.86375145e-02 -1.28790771e-02 -1.56416413e-02  1.25118461e-02
+ -1.83367994e-02 -3.91859602e-02 -5.76514173e-03  1.31184764e-02
+  2.38718754e-02  3.31430581e-02  1.78978348e-02 -7.31647757e-03
+ -4.03591246e-02  1.97105266e-02  1.48399927e-02 -5.43886500e-03
+  1.34743585e-02  4.50758297e-02  1.49856179e-02 -5.78530194e-02
+ -4.26819800e-02  1.76353984e-02 -3.68405631e-02 -7.64177944e-02
+  2.45914857e-02 -5.24894847e-02  7.04780563e-04  8.49762421e-02
+  3.70028148e-02  2.87849515e-02  2.07219127e-02 -1.21974832e-02
+ -4.59728487e-02 -2.63116879e-02 -4.71698824e-02 -1.82447184e-02
+  1.18820263e-02 -4.88815237e-02  9.03457144e-03  3.68608600e-02
+ -2.20234015e-02 -2.63978548e-02 -1.18114970e-02  3.10828949e-02
+  8.01349828e-03  2.42991920e-02  5.90750604e-02  6.64383974e-02
+  3.98106644e-02  4.48889410e-02  1.86876354e-02 -3.05452378e-02
+ -5.26912943e-02 -1.56352037e-02 -4.63631152e-02 -6.19783394e-02
+ -4.59273254e-02 -5.48288136e-02 -2.86416470e-02 -3.16386742e-02
+ -3.78070571e-04  7.59568358e-03  1.37726996e-02  6.24022497e-02
+  2.12687003e-02  8.26054368e-03  3.86870363e-02  8.20976581e-03
+ -3.58299485e-04  2.17413198e-03  8.21622856e-03  3.86189969e-02
+  2.82775762e-02 -6.50767900e-03 -2.14217413e-02  5.79377124e-03
+  1.12930085e-02 -5.37553595e-02  3.45154275e-02 -6.32667034e-02
+ -4.99914788e-03  2.37175644e-02  1.94428864e-02 -1.01837430e-02
+ -3.42053512e-02  1.39724116e-02 -1.63087140e-02 -3.27997329e-02
+ -2.34896538e-02  8.81268779e-03  2.05553498e-02 -1.82547378e-02
+  5.91403182e-03  2.02056220e-02 -2.15204923e-02 -1.25411299e-02
+  1.12567096e-02  1.63626019e-02 -3.39330314e-02  5.32599606e-02
+ -3.23701864e-02  1.78384654e-02 -2.42803374e-02 -3.57929861e-02
+ -2.25849307e-02 -4.24483216e-02 -3.09152303e-02  5.37483638e-03
+  1.87586065e-02 -2.78978862e-03  1.98942897e-02  3.57780325e-02
+  3.03198600e-02 -6.01558755e-02 -8.32582713e-03 -1.72777630e-02
+  4.85244827e-03 -3.01661703e-03  3.71381135e-02 -4.78717369e-03
+  3.32588120e-02  5.58696579e-02 -5.04199277e-03 -3.85337612e-03
+ -1.19188957e-02  3.35255592e-02  1.04796953e-02  3.65930041e-02
+  2.14179150e-03  1.47480166e-02  1.66237799e-03  2.60837823e-02
+ -9.50369103e-03 -1.20893854e-02 -1.52576104e-02 -2.48519306e-02
+  8.97415964e-03  2.04554998e-02  7.05664967e-04 -1.64054847e-02
+ -1.27124641e-02 -1.91870476e-02  1.01883044e-04  7.33496977e-03
+ -1.77295217e-02 -5.39428528e-03  2.35433988e-02  2.09424957e-02
+  3.49282039e-02 -5.55889842e-03  1.86486788e-02 -1.01154038e-02
+ -1.42074412e-04  2.41421683e-02 -4.30880158e-03 -7.56924448e-04
+  7.36037435e-03 -2.25765321e-03 -2.05345022e-02 -1.63358687e-02
+ -2.97601361e-02 -9.54398494e-03  1.92260739e-03  8.25823999e-03
+  7.08572455e-03  8.33168471e-03 -3.46886478e-03 -1.17143189e-02
+ -1.26806606e-03  1.16802092e-02 -4.37348492e-03  6.78173914e-03
+ -7.57248883e-03 -6.60051988e-03  6.27150905e-03  3.51753321e-04
+ -1.52173776e-02  5.96871750e-03 -5.57392518e-03 -1.06892205e-02
+  2.93605399e-02 -1.56616514e-02 -9.05290546e-03 -5.33239436e-03
+  4.93947348e-03 -1.77246916e-03  1.58105661e-02 -8.53725031e-04
+ -1.99283678e-02 -1.14782620e-02 -1.21844444e-03  1.20480047e-02
+  1.23896543e-02 -2.06628518e-03 -7.97904982e-03 -3.33607284e-04
+ -1.14485768e-02 -6.92915867e-03 -1.07149493e-02  1.81040911e-02
+  1.79666992e-02  2.64393676e-02  1.42685748e-02 -2.11135752e-02
+ -1.81463214e-02 -7.75161890e-03  5.92718298e-03 -1.16575480e-03
+  6.84844696e-03 -5.06661137e-03  1.28388884e-02 -8.36738484e-03
+ -9.00498842e-04 -3.27738364e-03 -1.67697117e-03 -4.34194026e-04
+  9.07894687e-03 -4.29125255e-03  7.81081224e-03 -7.51083691e-03
+  9.66081705e-03 -1.31578914e-02  2.09420926e-03 -5.91236983e-03
+  7.13206008e-03  4.73925594e-03  4.76771511e-03 -2.28287346e-03
+  6.25144718e-04 -2.86595073e-03 -9.81145561e-04 -5.24865893e-04
+ -1.35158870e-03 -5.11383258e-03  6.94634857e-03 -6.68703571e-03
+  7.02235942e-03 -1.04078427e-02  3.84562013e-03  1.82311409e-03
+  1.67838566e-02 -1.50334729e-03 -4.89422510e-03 -6.27726560e-03
+ -1.08430593e-02  8.88467658e-03  3.23495839e-03 -9.99496873e-04
+ -2.36485163e-03  1.13891139e-03 -1.80798135e-04 -4.57228213e-04
+ -2.08734205e-03  9.05520493e-05 -1.18125879e-04  5.73778505e-03
+ -3.53465805e-04  1.59858194e-03 -4.75273132e-03  2.74192040e-04
+  7.31769502e-05  3.15571457e-04 -1.50900016e-04 -1.34314548e-04
+ -9.54069055e-06]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.08032379199680183</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1030889000660513</v>
       </c>
     </row>
     <row r="4">
@@ -579,8 +705,195 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0279 </t>
-        </is>
+          <t>[ 2.79089802e-02  2.62640080e-02 -4.48533691e-03  1.76150447e-02
+ -8.08828627e-03 -3.04720605e-02  7.06245252e-02  1.08246022e-02
+ -7.19430289e-04 -5.76733528e-02  3.12346721e-02  1.72477335e-04
+ -4.37267693e-02 -4.54896571e-02 -3.17255588e-02  2.29749093e-02
+  3.49706678e-02 -1.56210727e-02  3.26449855e-02 -1.25828109e-02
+  2.87293674e-03  1.59949918e-02  4.65718864e-02 -1.03846680e-02
+ -2.92634998e-02  1.80212698e-02  5.43790680e-02  6.88778235e-02
+ -4.53162179e-03 -2.21919308e-02 -1.96670490e-02 -1.90350553e-02
+  4.11227137e-02 -2.34265712e-02 -9.25019582e-02 -2.69869284e-02
+  7.49239524e-02  1.93733457e-02 -5.04257453e-02 -6.08059248e-03
+  1.94320873e-02  1.88012007e-02  7.57026974e-03  3.15986606e-02
+ -2.47602464e-02 -2.53222434e-03  1.66755153e-02  2.64389072e-02
+  9.86286263e-02  7.06384782e-03 -2.81799244e-02 -3.31064076e-02
+  5.69375816e-02  4.65002363e-02  2.38555494e-03  1.23224702e-02
+ -1.86582136e-02  2.35401967e-02  1.42493172e-02 -3.26991080e-02
+ -2.61996135e-02 -4.86266972e-02  3.48250152e-02 -2.40695019e-02
+ -9.22935244e-04 -8.42627322e-02 -9.30587410e-03  4.12560965e-02
+  2.22327728e-03  1.31226774e-02 -1.89085115e-02  1.47675724e-03
+  1.61103651e-02  5.04020035e-02  2.35187443e-02  7.20867351e-03
+  1.05281606e-02  4.59464428e-03 -9.17722546e-03  2.37850824e-02
+ -5.18439106e-03  7.67596156e-03 -5.48071308e-02  2.24396977e-02
+ -6.26976422e-02 -1.93971714e-02 -4.41267270e-02  9.98062653e-03
+  1.07653521e-02 -4.95505310e-02  7.44615678e-03  4.74965279e-02
+ -1.11709195e-02  2.36302240e-02  3.59378295e-02  7.36952759e-02
+  1.00223797e-02  6.68590709e-02  1.17900144e-01  9.23083539e-02
+ -2.66903915e-02 -4.78961312e-04  6.90767560e-02  6.81487176e-02
+  1.05566769e-02 -2.66953263e-02 -6.46695647e-02  4.62791939e-02
+  1.93776128e-03 -1.44891506e-02 -8.72401237e-02 -4.67473208e-02
+ -2.23161261e-02  1.50422867e-01 -1.13271098e-02  2.83165793e-02
+ -3.93790647e-02  3.31315791e-03  3.62583118e-02  6.57675421e-02
+ -5.15380889e-02 -6.29843483e-02  9.46705690e-02  2.75837967e-02
+  4.62630862e-02 -8.30129808e-03 -3.89399088e-03 -4.87652122e-03
+ -2.03392183e-02  7.78795908e-02  1.87056994e-02 -6.44718348e-02
+  1.81576500e-02 -3.52479569e-02 -2.32339274e-02  3.90090397e-02
+  1.59367102e-03 -5.06031857e-03  3.38901192e-03 -1.06044557e-02
+  5.21870488e-02 -3.66059589e-02  5.92577143e-03  2.55625882e-02
+  8.38394075e-03 -6.70591283e-02  9.53025914e-03  2.23828026e-02
+  3.60465305e-02 -4.61695877e-03 -4.58413294e-02 -6.08370188e-02
+ -2.42562070e-02 -3.62252793e-02 -1.60522934e-02 -2.99049770e-02
+ -5.72408385e-02 -3.30630374e-02 -2.13867102e-02 -3.77566873e-02
+ -4.33351652e-02 -4.99121323e-02 -3.89770606e-02  2.19997293e-03
+  3.26652046e-02 -1.53520696e-02  2.20285943e-02  2.61761332e-03
+ -4.88987570e-03  6.56493483e-03  2.93529581e-04 -7.30297998e-03
+ -5.26039170e-03  2.12361586e-02  6.49402288e-02 -4.73944276e-02
+ -2.74358434e-02  1.80660742e-02  3.63271970e-03  1.80759858e-02
+  8.45304058e-03 -4.85128879e-02 -3.22418624e-02 -1.34750571e-02
+  4.93718099e-03 -6.40182603e-02 -3.45159672e-02  4.83102068e-02
+  1.94709670e-02  2.25667783e-02  4.46243917e-02 -1.76101355e-03
+ -8.48164632e-03  7.10191098e-02  4.52923123e-02  1.68778536e-02
+  2.72989725e-02 -5.33182821e-04  3.32609869e-02  6.35981627e-02
+  1.27062937e-02 -2.62873864e-02 -2.68158896e-02 -5.28937970e-02
+ -1.71515251e-02 -4.62767701e-02 -9.19810909e-03  2.01463897e-02
+  7.06577182e-02 -5.55211803e-02 -3.30718105e-02 -6.99589832e-02
+ -1.91342591e-02  4.15902986e-02  4.89543334e-02  1.73995528e-02
+  2.75073675e-02  3.79227790e-02  3.60189452e-02  4.38899696e-02
+ -4.40704249e-02 -5.69581467e-03  2.52843213e-02 -1.20649105e-03
+  3.55935052e-02 -5.12262981e-04 -7.71919107e-02  1.54942920e-02
+ -2.89224521e-02  2.61154431e-02 -6.63472566e-02 -4.35244505e-02
+  1.16492286e-02 -8.06303314e-04 -2.46320653e-03  4.76462327e-02
+  2.47786844e-02 -5.15431424e-02 -4.82955581e-02  7.70025198e-02
+  4.88709780e-04  5.35346913e-03 -4.79491408e-02  2.99600925e-02
+ -8.70222599e-04  2.37816822e-02 -4.58217349e-02 -2.91824286e-02
+ -5.22884385e-02  2.88878162e-02  4.65389431e-02 -4.77362559e-03
+ -1.94092377e-02  1.74493415e-02  3.49792861e-02  8.74459264e-03
+  1.78937074e-02  7.62687380e-02  4.63201793e-02  6.35337594e-02
+  6.15687256e-02  1.04232080e-02 -3.91659488e-02 -3.25819726e-03
+  2.02990871e-02 -8.54886551e-02 -1.12186589e-02 -2.25448249e-02
+ -4.20507103e-02  1.04037146e-02 -2.79340183e-02  3.88748425e-02
+ -8.96939796e-02 -1.28871263e-03  1.82382535e-02  1.80282543e-02
+ -2.88763229e-02 -4.61224194e-03  5.18869099e-04  1.50314356e-03
+  4.07469434e-02 -4.05688178e-03 -1.30979462e-02 -3.34895378e-02
+ -5.31600342e-02 -6.14289109e-02 -4.42244090e-02  4.97254094e-04
+  1.74491438e-02 -5.35697159e-02 -4.85356544e-02  6.37711707e-03
+ -9.21985668e-03 -1.51972229e-02 -2.23251913e-03 -2.12637255e-02
+  2.50056590e-02  3.65314383e-03 -1.57432227e-02  1.07564688e-02
+ -1.61753676e-02  5.27932662e-02  2.27286168e-02 -1.69619891e-04
+  2.43471532e-02  1.12553145e-02  3.03312470e-02  1.48673055e-03
+  8.05022729e-04 -8.51630274e-03 -1.72370393e-02 -2.54432579e-02
+ -4.22160101e-03 -2.44421979e-03 -1.92757893e-02 -1.63015270e-02
+ -4.36352151e-02 -5.88899071e-03  1.38625547e-02 -1.40870046e-02
+  1.59784238e-02 -1.70982610e-02  3.27969687e-02  3.71774454e-04
+  2.90667846e-02 -1.79518394e-02  5.61727927e-03  8.18192030e-03
+  1.60509381e-02  2.24164654e-02  2.52107427e-02 -1.26497359e-02
+ -1.26474609e-02 -2.57369879e-03  2.18736723e-02  1.81726054e-02
+  3.05570355e-02 -2.03783078e-02  3.82958686e-02  6.76827805e-03
+  2.97148931e-02 -3.52509401e-03 -2.23566596e-02  2.80995875e-02
+ -2.86887483e-03  2.47712458e-02  1.65413947e-02  1.77353957e-02
+  2.68735073e-03  1.03065131e-02 -5.35668713e-03 -2.43966955e-02
+  2.10217495e-02  7.55553396e-03  2.37285905e-02  1.27579318e-02
+ -5.35832610e-03  8.18439567e-03  2.08523925e-02 -5.52283103e-04
+ -3.14462086e-02 -2.68108470e-02 -1.44275923e-02  1.06497704e-02
+  4.39266901e-03 -2.63704788e-02 -5.43431254e-03  8.13678650e-03
+  2.76248714e-02  2.63326124e-02 -2.12153151e-02 -8.20187069e-04
+ -5.90808290e-03  2.19335434e-02 -4.50414723e-03 -4.10939432e-03
+  1.72228944e-02  3.41700081e-03 -1.90588807e-02  2.16386112e-02
+ -1.52175555e-02 -3.97067760e-02  6.49919703e-03  5.90842619e-03
+ -4.52485498e-03 -5.58507953e-03 -6.56993950e-03  3.48514623e-02
+ -3.50303772e-03 -1.50216413e-02 -5.25864266e-03 -2.31618962e-02
+ -2.83176880e-02  1.44043549e-02 -2.32747926e-02 -2.76150473e-03
+  1.50722324e-02  2.33255269e-02 -9.29093123e-03 -1.63335911e-02
+  3.11202327e-02  7.19283073e-03 -2.63346577e-02 -1.48185891e-02
+  7.33673494e-04  3.13216714e-02 -2.09085204e-02 -2.00757354e-02
+ -4.34626669e-03  6.16622888e-03  1.50154872e-02 -2.23344099e-02
+ -4.66583916e-02  8.15263414e-03  2.52176184e-02  1.29971183e-03
+ -1.52920105e-02 -5.24125041e-04  1.10258195e-02  1.31215519e-02
+  8.70380558e-03 -1.73494152e-02  1.58077174e-02  1.45576940e-02
+ -3.56346293e-03 -2.51493170e-03  5.83042637e-04  2.62389493e-02
+  8.61788088e-03  1.59811408e-03  1.33363516e-04 -1.33159106e-02
+  1.21585552e-02 -3.09366637e-03  1.09763919e-02 -1.20953763e-02
+ -2.44500162e-02  2.06663609e-02  5.49915327e-03 -1.25064713e-02
+  1.08255197e-02 -2.22786430e-02 -5.24274761e-03  4.82875931e-03
+ -1.30922438e-02  6.43015566e-03 -4.81373453e-03 -3.02226328e-02
+  2.13708464e-02 -1.04267605e-02  2.78496726e-03 -3.53392293e-02
+ -1.16268953e-02 -1.05061929e-02 -9.56133643e-03 -1.64419722e-02
+  4.01037922e-04  1.76875295e-02 -2.38227060e-02  1.94454763e-02
+ -1.08628394e-02  1.19940682e-02  3.71511247e-02  1.76073262e-02
+  2.90713477e-02 -5.53910199e-03  4.05628017e-03  2.14066927e-02
+  7.11044352e-04  1.22471506e-03 -1.72324382e-02  6.42763677e-03
+ -9.44687528e-03 -2.08626296e-03 -2.02707130e-02 -1.96151576e-02
+ -4.54283334e-03 -1.77776073e-02  2.56339901e-02  7.34857085e-03
+  4.49839536e-02 -1.55679950e-03 -5.93113816e-03 -4.14111623e-03
+ -8.69905377e-03  3.49123954e-03  5.25194743e-03  1.34541693e-02
+  2.45466660e-03  4.11208725e-03  3.14569890e-03 -2.03858991e-02
+ -2.36933476e-02  5.03347805e-03 -4.14295965e-03 -4.00850611e-03
+ -6.79648983e-03  2.19726246e-03 -5.16486050e-03 -2.35491081e-02
+  1.57518657e-02 -4.55687310e-03 -1.35710876e-02 -6.09865046e-03
+  1.24076795e-02  5.55415341e-03 -5.88571424e-04  2.98086015e-02
+  1.81846992e-02  2.35665043e-02  2.69253972e-02 -1.19262755e-03
+ -3.11718311e-03  1.10819865e-02 -3.34414878e-03 -9.14648913e-03
+ -4.23707674e-02 -4.71010726e-04 -5.23788199e-03 -1.47244181e-02
+ -2.35746732e-02 -3.33808544e-02 -1.28495471e-02  1.78928236e-03
+ -1.49976401e-02 -1.67390589e-02 -4.89563082e-03  1.57505570e-02
+  2.14391848e-02 -4.85022588e-03 -4.02228225e-03 -1.41757891e-02
+  9.92356526e-03  8.77518830e-03 -6.81013805e-03 -4.98693139e-03
+  9.26601658e-03 -5.11727995e-03 -1.91147852e-02 -1.62758673e-02
+ -1.37022712e-02  1.07949905e-03  1.03052827e-02 -1.86133688e-02
+  8.36763764e-04 -3.13079434e-03 -1.27472507e-02  6.09009145e-03
+  3.31816864e-03  8.03590491e-03 -4.27415867e-03  9.74390251e-04
+  9.38382211e-03 -3.17850693e-03  3.71410220e-03  2.41731040e-03
+  4.45087278e-03  7.44242373e-03  2.32461941e-02  1.53694691e-02
+  8.24169263e-03 -1.85095955e-03  2.20055228e-03  2.86721888e-03
+ -1.25774036e-02  6.19111918e-03 -1.37812259e-02  2.03005750e-03
+  8.40028716e-03 -4.88829402e-03 -1.50092922e-02 -6.94990229e-03
+ -2.92220837e-03  1.20040785e-03  5.93008879e-03  5.68607335e-05
+ -8.82746068e-03 -9.45684696e-03  8.84214476e-03  1.81572718e-03
+ -7.68323547e-03 -2.15010923e-03  7.81254532e-03  2.63984128e-04
+  6.75268123e-04  6.61709041e-03  1.38657354e-02  1.11354046e-02
+  8.67584423e-03  5.98175640e-03 -5.82228659e-03 -1.70507513e-02
+ -1.41236289e-02 -9.11763914e-03 -6.22388098e-03 -1.58596094e-02
+ -1.92875775e-02  3.61670922e-03 -5.47317785e-03 -1.87395658e-03
+  2.09275655e-03  1.62731364e-03  9.82977014e-04  1.44224445e-02
+  4.64888432e-03 -3.94400080e-03  9.46755743e-03  1.27298867e-02
+  1.50378451e-02  1.94354445e-03 -1.02659976e-04 -5.91742049e-03
+  6.39120827e-03  9.37175782e-03  8.36109335e-03  2.68017014e-04
+ -4.85271592e-03 -1.05462581e-02 -1.74825774e-04 -1.23634954e-02
+ -1.04542108e-02 -2.44789016e-03 -8.80243164e-04 -2.14743167e-03
+ -1.50555061e-02  1.40511663e-03 -4.54691111e-03  1.25128261e-02
+  2.06400930e-02  2.02560168e-02 -2.82227016e-03 -2.27397026e-04
+  1.18573901e-02 -1.29523860e-03 -3.27519385e-03 -4.01087942e-03
+  8.17509365e-05  7.09481165e-03  7.31132434e-03  2.62808547e-03
+ -7.77549875e-03 -8.85897098e-03  4.12577406e-03 -8.69392071e-03
+ -4.19162368e-04 -6.95824310e-03  9.40096072e-03 -2.07051299e-03
+  1.36211194e-03  9.91842641e-03  6.27366252e-03  1.58723732e-02
+ -5.94040239e-03  1.46985131e-02  4.79611419e-03 -1.44492700e-03
+ -4.23291276e-03 -1.29899598e-02 -2.36495751e-03 -4.88382312e-03
+  2.26786915e-03 -2.62391901e-03 -5.12434644e-03  1.11417105e-03
+  1.24199582e-03 -7.40039149e-03 -3.01016111e-03  7.94459400e-03
+  1.38690808e-02  3.21964781e-03  3.82289934e-03 -7.60405379e-03
+ -9.24601967e-03 -4.15953719e-03 -1.85945599e-03 -1.27400415e-02
+ -8.03932974e-03  3.15343222e-03  2.76739159e-03 -4.02405943e-04
+  2.24228744e-03  7.18290145e-03  3.28937893e-03  5.21739662e-03
+  3.30388249e-03  3.16488954e-03  5.14407211e-03 -5.93643162e-04
+  7.40454664e-04 -3.39284188e-03  3.64780940e-03 -6.19667726e-04
+ -3.96819076e-03 -3.34199385e-03  4.13894959e-03  7.13312770e-04
+ -7.69717269e-04 -3.91092951e-03  2.49119715e-03  1.65715876e-03
+  1.68191669e-03 -3.88255087e-04 -8.07019584e-05  2.25414794e-03
+  1.42736775e-03 -2.91708416e-04 -2.09306810e-03  5.42331417e-03
+  3.80427064e-03  5.00672796e-03 -1.80937222e-04  8.18153035e-05
+ -2.64399322e-04 -1.75877847e-04  1.26188444e-03  9.26966883e-05
+  1.94384127e-03  9.69520268e-04  1.50204052e-03  6.35661805e-04
+  1.88126797e-05 -6.71992596e-05  1.17898238e-04  4.01729856e-04
+ -2.45068665e-05]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.02790898017652112</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4530609300055915</v>
       </c>
     </row>
     <row r="5">
@@ -591,8 +904,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">0.0183 </t>
-        </is>
+          <t>[ 1.83171906e-02  2.17759513e-02 -1.65457233e-02 ...  4.23232301e-04
+ -2.13159938e-04 -2.20335488e-05]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01831719055815016</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4761977277415902</v>
       </c>
     </row>
     <row r="6">
@@ -603,8 +923,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.0268 </t>
-        </is>
+          <t>[-2.68087147e-02  1.23021816e-02  1.40289738e-02 ...  1.71145725e-04
+  2.08913494e-04  5.08472576e-05]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.02680871470436154</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3187740042604673</v>
       </c>
     </row>
     <row r="7">
@@ -615,8 +942,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.0102 </t>
-        </is>
+          <t>[-0.01016943  0.07971361  0.17584891  0.07646945  0.18927169  0.09348741
+  0.01707164 -0.03240401 -0.07476319  0.1898948  -0.07209226 -0.08508895
+ -0.10212406  0.09181588  0.09873902 -0.12496455 -0.23947836 -0.05935728
+ -0.03259289 -0.0332595   0.06458987  0.00570279 -0.05630809  0.05347987
+  0.05172646 -0.10789974  0.03319208 -0.06591731 -0.00877078  0.03029135
+  0.04136508  0.08776311 -0.15592025 -0.09327823 -0.03773164  0.00589626
+ -0.07007354  0.07246588 -0.09974794 -0.08225433  0.06080992 -0.0540267
+  0.15832448 -0.04514243 -0.11545219 -0.06856278  0.08237047  0.12809003
+  0.0409349   0.0596899  -0.08231659  0.12595807  0.10943276 -0.14003542
+ -0.08669968  0.04412617 -0.04864024 -0.02477473  0.14337608 -0.0491307
+ -0.01384262  0.04549801 -0.10326699 -0.03980416  0.13176999  0.00741434
+ -0.01983831  0.07055453  0.04465477  0.10277089 -0.02250828 -0.05176644
+ -0.0400654   0.02285917 -0.00656644 -0.05372992  0.02232916 -0.0512269
+  0.02514839 -0.03082371 -0.02071359 -0.04250356  0.00762699  0.00903479
+ -0.02238893  0.01755832  0.00771772  0.00550698  0.0016371   0.00293886
+ -0.00126892]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.01016943048018764</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9237814087391832</v>
       </c>
     </row>
     <row r="8">
@@ -627,8 +975,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">-0.5372 </t>
-        </is>
+          <t>[-0.5372378   0.37525265  0.63328638 -0.4593972 ]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.5372377997966188</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4627622002033811</v>
       </c>
     </row>
   </sheetData>

--- a/data/results/daily_model/daily_model_results.xlsx
+++ b/data/results/daily_model/daily_model_results.xlsx
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.36430317848411</v>
+        <v>64.119804400978</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.59902200488997</v>
+        <v>72.12713936430319</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.76039119804401</v>
+        <v>22.24938875305623</v>
       </c>
     </row>
     <row r="5">
@@ -484,21 +484,21 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>STORA ENSO</t>
+          <t>BP PLC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88.32518337408312</v>
+        <v>94.25427872860635</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BP PLC</t>
+          <t>STORA ENSO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.68459657701712</v>
+        <v>88.56968215158925</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.134474327628362</v>
+        <v>5.440097799511003</v>
       </c>
     </row>
     <row r="9">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1833740831295844</v>
+        <v>0.2444987775061125</v>
       </c>
     </row>
   </sheetData>
@@ -565,15 +565,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-2.08013875e-02 -2.11482738e-03 -4.71642064e-02 ... -4.69256321e-06
-  1.25159523e-04  7.44944272e-05]</t>
+          <t>(array([-1.10774319e-02, -4.83643742e-02, -7.72800049e-02, ...,
+        1.73579778e-04,  7.28160821e-05, -1.47415597e-04]), array([[-0.06982644,  0.04767157],
+       [-0.10711338,  0.01038463],
+       [-0.13602901, -0.018531  ],
+       ...,
+       [-0.05857542,  0.05892258],
+       [-0.05867619,  0.05882182],
+       [-0.05889642,  0.05860159]]))</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.02080138747339533</v>
+        <v>-0.01107743188346527</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4881439406859721</v>
+        <v>0.7120103193462844</v>
       </c>
     </row>
     <row r="3">
@@ -584,15 +590,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-0.01917053  0.0320736   0.00784283 ... -0.00076627 -0.00073163
- -0.00051013]</t>
+          <t>(array([ 0.05302477,  0.02861812,  0.03972406, ...,  0.00015714,
+       -0.00077349, -0.00053932]), array([[-0.00131395,  0.1073635 ],
+       [-0.0257206 ,  0.08295685],
+       [-0.01461466,  0.09406279],
+       ...,
+       [-0.05418159,  0.05449586],
+       [-0.05511221,  0.05356524],
+       [-0.05487805,  0.0537994 ]]))</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.01917053242305668</v>
+        <v>0.05302477158884411</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4896484964775462</v>
+        <v>0.05586627986463444</v>
       </c>
     </row>
     <row r="4">
@@ -603,117 +615,529 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-8.03237920e-02 -7.00626794e-03  4.60305647e-02 -2.91850154e-02
-  8.34717842e-02  2.37437191e-02  3.16320812e-02 -4.36665077e-02
-  2.28476445e-02 -2.60681226e-03 -1.42085707e-02 -3.29859861e-02
-  2.35130852e-03  4.89499439e-02  5.01481210e-02 -1.79112702e-02
- -5.66432072e-03 -1.89487781e-02  5.73636718e-02  5.63039886e-02
- -5.83089518e-02  1.00132367e-02 -8.32454750e-03  3.96870413e-02
-  6.29890712e-02  4.18272711e-03  7.95335529e-02 -1.29864158e-02
-  2.14110546e-02  2.66287283e-02  8.81890790e-02  6.06183908e-03
- -8.53113406e-03 -1.78251786e-02  8.75480990e-03  9.53786542e-03
- -6.09492446e-02  1.89695245e-02 -6.59802996e-02  3.44944911e-02
- -4.33263488e-03 -2.54272231e-02  7.20172792e-03 -8.58988804e-03
-  4.40489078e-02  2.46985310e-02  7.85394480e-02  3.50188608e-02
-  4.02415482e-02 -5.17577090e-02 -2.82131762e-03 -1.36955880e-02
- -9.03567034e-02 -2.21816735e-02 -2.05777641e-02 -8.50234824e-02
-  2.06061725e-02 -5.07695192e-02 -3.08362667e-02 -3.84111299e-02
- -3.00801001e-02  1.48345451e-02  1.60898586e-02  6.27446336e-02
-  3.84264113e-02  8.35309462e-03  3.73531678e-02  5.14210646e-02
- -4.59632181e-02 -1.02005903e-01 -9.35559365e-02 -5.91368440e-02
- -3.16279723e-02 -4.40771833e-02  2.70569595e-02  6.73876120e-03
-  5.47256368e-02  4.42703628e-03  3.96841998e-02 -6.24261970e-02
-  6.65385626e-03 -1.10957882e-03 -3.21334508e-02  3.41780741e-02
- -5.20300948e-03  8.85321627e-02 -4.03074077e-02 -8.14119690e-02
- -4.85293549e-02  1.00493516e-01 -1.15176778e-01  5.91263428e-02
- -6.23214348e-02  1.43945168e-02  7.14073668e-02 -4.53670478e-02
-  9.59018433e-04 -3.04474561e-02 -2.57333088e-02  1.00734045e-02
- -1.01280206e-02 -1.87221390e-02  3.99872984e-03 -1.00258722e-02
- -6.18104792e-04 -8.58320986e-02 -1.63360548e-02  6.33233926e-02
- -3.81638256e-02  2.07681378e-02 -4.68942979e-02 -1.99164256e-02
- -2.02405878e-02  2.76961251e-02 -6.80090414e-02  2.68923751e-02
-  9.83089671e-02 -7.40379059e-02 -3.37210550e-02  5.11524809e-03
-  1.14317236e-02  6.63680382e-03 -2.35468825e-02  4.82284019e-03
-  2.68348735e-02  4.94395347e-02 -7.52148845e-02  5.98521573e-02
-  9.96059901e-03  7.94453641e-02 -6.90847815e-02 -2.88511056e-03
- -4.21368873e-02  2.80425865e-02  9.17901900e-02 -3.38230969e-02
- -1.30207285e-02  4.81240664e-02  4.64705481e-02  7.92459378e-02
-  4.27094148e-02  3.73305634e-02  2.44991938e-02  3.84565187e-02
- -2.73783477e-02 -6.85357870e-02  1.01961983e-02 -5.98283741e-02
-  2.86375145e-02 -1.28790771e-02 -1.56416413e-02  1.25118461e-02
- -1.83367994e-02 -3.91859602e-02 -5.76514173e-03  1.31184764e-02
-  2.38718754e-02  3.31430581e-02  1.78978348e-02 -7.31647757e-03
- -4.03591246e-02  1.97105266e-02  1.48399927e-02 -5.43886500e-03
-  1.34743585e-02  4.50758297e-02  1.49856179e-02 -5.78530194e-02
- -4.26819800e-02  1.76353984e-02 -3.68405631e-02 -7.64177944e-02
-  2.45914857e-02 -5.24894847e-02  7.04780563e-04  8.49762421e-02
-  3.70028148e-02  2.87849515e-02  2.07219127e-02 -1.21974832e-02
- -4.59728487e-02 -2.63116879e-02 -4.71698824e-02 -1.82447184e-02
-  1.18820263e-02 -4.88815237e-02  9.03457144e-03  3.68608600e-02
- -2.20234015e-02 -2.63978548e-02 -1.18114970e-02  3.10828949e-02
-  8.01349828e-03  2.42991920e-02  5.90750604e-02  6.64383974e-02
-  3.98106644e-02  4.48889410e-02  1.86876354e-02 -3.05452378e-02
- -5.26912943e-02 -1.56352037e-02 -4.63631152e-02 -6.19783394e-02
- -4.59273254e-02 -5.48288136e-02 -2.86416470e-02 -3.16386742e-02
- -3.78070571e-04  7.59568358e-03  1.37726996e-02  6.24022497e-02
-  2.12687003e-02  8.26054368e-03  3.86870363e-02  8.20976581e-03
- -3.58299485e-04  2.17413198e-03  8.21622856e-03  3.86189969e-02
-  2.82775762e-02 -6.50767900e-03 -2.14217413e-02  5.79377124e-03
-  1.12930085e-02 -5.37553595e-02  3.45154275e-02 -6.32667034e-02
- -4.99914788e-03  2.37175644e-02  1.94428864e-02 -1.01837430e-02
- -3.42053512e-02  1.39724116e-02 -1.63087140e-02 -3.27997329e-02
- -2.34896538e-02  8.81268779e-03  2.05553498e-02 -1.82547378e-02
-  5.91403182e-03  2.02056220e-02 -2.15204923e-02 -1.25411299e-02
-  1.12567096e-02  1.63626019e-02 -3.39330314e-02  5.32599606e-02
- -3.23701864e-02  1.78384654e-02 -2.42803374e-02 -3.57929861e-02
- -2.25849307e-02 -4.24483216e-02 -3.09152303e-02  5.37483638e-03
-  1.87586065e-02 -2.78978862e-03  1.98942897e-02  3.57780325e-02
-  3.03198600e-02 -6.01558755e-02 -8.32582713e-03 -1.72777630e-02
-  4.85244827e-03 -3.01661703e-03  3.71381135e-02 -4.78717369e-03
-  3.32588120e-02  5.58696579e-02 -5.04199277e-03 -3.85337612e-03
- -1.19188957e-02  3.35255592e-02  1.04796953e-02  3.65930041e-02
-  2.14179150e-03  1.47480166e-02  1.66237799e-03  2.60837823e-02
- -9.50369103e-03 -1.20893854e-02 -1.52576104e-02 -2.48519306e-02
-  8.97415964e-03  2.04554998e-02  7.05664967e-04 -1.64054847e-02
- -1.27124641e-02 -1.91870476e-02  1.01883044e-04  7.33496977e-03
- -1.77295217e-02 -5.39428528e-03  2.35433988e-02  2.09424957e-02
-  3.49282039e-02 -5.55889842e-03  1.86486788e-02 -1.01154038e-02
- -1.42074412e-04  2.41421683e-02 -4.30880158e-03 -7.56924448e-04
-  7.36037435e-03 -2.25765321e-03 -2.05345022e-02 -1.63358687e-02
- -2.97601361e-02 -9.54398494e-03  1.92260739e-03  8.25823999e-03
-  7.08572455e-03  8.33168471e-03 -3.46886478e-03 -1.17143189e-02
- -1.26806606e-03  1.16802092e-02 -4.37348492e-03  6.78173914e-03
- -7.57248883e-03 -6.60051988e-03  6.27150905e-03  3.51753321e-04
- -1.52173776e-02  5.96871750e-03 -5.57392518e-03 -1.06892205e-02
-  2.93605399e-02 -1.56616514e-02 -9.05290546e-03 -5.33239436e-03
-  4.93947348e-03 -1.77246916e-03  1.58105661e-02 -8.53725031e-04
- -1.99283678e-02 -1.14782620e-02 -1.21844444e-03  1.20480047e-02
-  1.23896543e-02 -2.06628518e-03 -7.97904982e-03 -3.33607284e-04
- -1.14485768e-02 -6.92915867e-03 -1.07149493e-02  1.81040911e-02
-  1.79666992e-02  2.64393676e-02  1.42685748e-02 -2.11135752e-02
- -1.81463214e-02 -7.75161890e-03  5.92718298e-03 -1.16575480e-03
-  6.84844696e-03 -5.06661137e-03  1.28388884e-02 -8.36738484e-03
- -9.00498842e-04 -3.27738364e-03 -1.67697117e-03 -4.34194026e-04
-  9.07894687e-03 -4.29125255e-03  7.81081224e-03 -7.51083691e-03
-  9.66081705e-03 -1.31578914e-02  2.09420926e-03 -5.91236983e-03
-  7.13206008e-03  4.73925594e-03  4.76771511e-03 -2.28287346e-03
-  6.25144718e-04 -2.86595073e-03 -9.81145561e-04 -5.24865893e-04
- -1.35158870e-03 -5.11383258e-03  6.94634857e-03 -6.68703571e-03
-  7.02235942e-03 -1.04078427e-02  3.84562013e-03  1.82311409e-03
-  1.67838566e-02 -1.50334729e-03 -4.89422510e-03 -6.27726560e-03
- -1.08430593e-02  8.88467658e-03  3.23495839e-03 -9.99496873e-04
- -2.36485163e-03  1.13891139e-03 -1.80798135e-04 -4.57228213e-04
- -2.08734205e-03  9.05520493e-05 -1.18125879e-04  5.73778505e-03
- -3.53465805e-04  1.59858194e-03 -4.75273132e-03  2.74192040e-04
-  7.31769502e-05  3.15571457e-04 -1.50900016e-04 -1.34314548e-04
- -9.54069055e-06]</t>
+          <t>(array([ 3.11589635e-02,  1.11320864e-02, -3.64876367e-02,  9.67394291e-02,
+        2.69893102e-02,  1.02320537e-01, -5.93700366e-02,  6.28513846e-02,
+        8.76655089e-03, -8.59832721e-03, -2.78283134e-02, -2.32795258e-02,
+        7.88933059e-03, -4.58705012e-03, -2.49196996e-02, -9.81855636e-03,
+       -1.24705504e-02,  5.67563897e-03,  7.68298163e-02, -7.32016537e-02,
+        2.11077889e-02, -4.75853576e-02,  2.14820216e-02,  2.56678207e-02,
+       -1.58591105e-02,  5.41346862e-02, -2.82581241e-02,  4.15921148e-02,
+        1.53984440e-02,  6.09807657e-02, -4.91333338e-02, -4.98521480e-02,
+       -5.09382551e-02, -3.42866262e-04, -1.00460757e-02, -5.18778543e-02,
+        2.50210195e-02, -3.62344028e-02,  3.08927651e-02, -2.14449390e-02,
+       -3.96044582e-02, -1.89273951e-02, -2.19942318e-02,  6.39705423e-02,
+        4.82970332e-02,  2.97893569e-02,  7.33720875e-02,  4.77480668e-02,
+       -3.55704435e-02,  2.52322414e-02, -1.07423553e-01, -1.21097699e-01,
+       -1.27919031e-02, -2.88680980e-02, -7.09650117e-02,  1.63830607e-02,
+       -2.06918594e-02, -1.69100972e-02, -2.08567171e-02, -1.86335604e-02,
+        3.58881426e-02, -1.02019832e-02,  6.76168516e-02,  4.00211846e-02,
+       -1.60064437e-03,  2.41160544e-02,  4.73282793e-02, -4.12138557e-02,
+       -6.83972615e-02, -1.00763295e-01, -4.72213215e-02, -4.43293823e-02,
+       -7.62320520e-02,  9.64924971e-03,  3.72284822e-02,  7.34513496e-02,
+       -3.81255005e-02,  5.34356312e-02, -4.83077237e-02,  2.10897093e-02,
+       -1.23062747e-02, -6.53987034e-02,  6.02963163e-02, -4.46811218e-02,
+        6.57171733e-02, -1.92589960e-02, -3.94379604e-02, -7.02576082e-02,
+        9.89724116e-02, -1.21311351e-01,  2.94960815e-02, -3.10970298e-02,
+        1.04636273e-01,  7.15542358e-02, -9.38647812e-03, -1.38094619e-02,
+       -2.75791702e-02,  8.77621067e-04,  6.47104383e-03, -1.80992649e-02,
+       -1.40788228e-02, -9.71834752e-04, -1.91351138e-02,  5.54848718e-02,
+       -1.00472356e-01,  2.29563724e-03,  6.99587337e-02, -4.77923322e-03,
+        2.68872453e-02, -3.52149067e-02, -3.96521381e-02, -1.63878619e-02,
+        2.27847195e-03, -7.17510305e-02,  1.96730282e-02,  7.12524158e-02,
+       -1.29057983e-02, -1.45419287e-02,  3.31297453e-02,  4.23934705e-03,
+       -7.42216244e-03, -2.48897910e-02,  5.42479390e-03,  1.46991172e-02,
+        5.75023549e-02, -6.56621682e-02,  5.97334335e-02,  2.51261868e-02,
+        7.41855625e-02, -6.08950721e-02, -1.96783134e-04, -1.70083902e-02,
+        5.14346013e-03,  6.71867486e-02, -3.55427312e-02,  5.89951563e-03,
+        2.17758958e-02,  2.28737229e-02,  8.17598817e-02,  3.54336653e-02,
+        3.90637408e-02,  4.71040707e-02,  2.26371365e-02, -2.78555459e-02,
+       -9.10228227e-02, -2.29312577e-03, -9.22045450e-02,  4.10303641e-02,
+       -5.92739016e-02,  2.46350354e-02,  4.14625192e-02, -2.97766458e-02,
+       -3.66559312e-02, -1.49972305e-02,  2.27598490e-02,  1.46856527e-02,
+        3.01806121e-02,  4.25536736e-02, -1.09809995e-02, -6.21649281e-02,
+        1.76991837e-02, -9.10884632e-03, -2.79237151e-02, -1.04272780e-02,
+        2.53832375e-02,  7.34139571e-03, -5.61002123e-02,  9.15966791e-04,
+        2.03575355e-03, -1.07127892e-02, -7.06367426e-02,  2.55233406e-02,
+       -4.23460788e-02,  3.47102700e-02,  6.05651947e-02,  1.80174745e-02,
+        2.68914117e-02,  1.72872652e-02,  3.78637249e-03, -3.97585392e-02,
+        3.05912575e-03, -4.25236398e-02, -2.99798469e-02,  7.58846176e-03,
+       -4.91801751e-02, -2.95583604e-02,  3.10261045e-02, -2.95770564e-02,
+       -1.86850640e-02, -1.63567952e-02,  2.83220361e-02,  1.17758545e-02,
+        2.05137820e-02,  6.25695697e-02,  6.87676983e-02,  4.39935827e-02,
+        5.77254208e-02,  3.22562947e-02, -3.80308448e-02, -4.24323836e-02,
+       -2.21447172e-02, -6.67481013e-02, -7.73896747e-02, -5.07175407e-02,
+       -5.09742699e-02,  1.22143354e-03,  7.07846775e-03, -4.21725483e-03,
+        1.29464369e-02,  1.07997831e-02,  4.53787924e-02,  1.68758386e-02,
+       -1.53125091e-03,  2.52902008e-02,  4.59592203e-03, -1.77879681e-02,
+        1.47064258e-02, -1.20004189e-02,  3.35502118e-02,  1.18116858e-02,
+       -4.22036137e-03, -2.91533834e-02,  1.31262829e-02,  3.73606274e-03,
+       -5.26392199e-02,  2.86227343e-02, -2.94258695e-02, -1.01266548e-02,
+        2.60198315e-02,  2.33729976e-02, -1.46794990e-03, -2.59905716e-02,
+        2.40705932e-02, -1.68450505e-02, -4.07364809e-02, -3.26458399e-02,
+        3.18154740e-03,  1.96440954e-02, -2.05257171e-02,  1.42191870e-02,
+        3.86696020e-03, -2.23366848e-02, -1.76664903e-02,  1.18943140e-02,
+        3.27370557e-02, -2.06686982e-02,  4.85607312e-02, -3.37548984e-02,
+        2.55830571e-02, -2.73875656e-02, -4.88604838e-02, -2.70144146e-02,
+       -4.71373575e-02, -2.26240542e-02,  1.08422227e-02,  3.28592719e-02,
+       -4.06324131e-03,  1.09305125e-02,  3.92808270e-02,  3.96933272e-02,
+       -6.14659571e-02, -4.79320712e-03, -4.26861184e-03,  1.41245649e-02,
+        1.40075419e-03,  3.35312752e-02, -3.13433839e-02,  3.92405127e-02,
+        2.96476179e-02,  7.35991155e-03, -1.70041364e-02, -1.16533990e-03,
+        2.10365171e-02,  1.02199994e-02,  4.64690729e-02,  2.53547415e-03,
+        8.75668624e-03, -4.54133424e-03,  2.25559788e-02, -2.13720159e-02,
+       -4.02028486e-03, -6.89189487e-03, -2.38002114e-03,  1.61043635e-02,
+        5.29117344e-02,  8.85016040e-03, -7.64891440e-03, -1.46901350e-02,
+       -1.43789508e-02,  3.03661965e-03, -2.20068971e-03, -1.82502113e-02,
+       -9.35032679e-03,  2.21046330e-02,  1.73919437e-02,  3.40667778e-02,
+       -1.22198357e-02,  2.71269000e-02, -1.66169726e-02,  3.02808439e-03,
+        2.98833659e-02,  3.45024693e-03,  2.19832921e-03,  4.83673765e-03,
+       -7.22530242e-03, -3.01309112e-02, -8.34538213e-03, -2.13315383e-02,
+        7.35609681e-04, -3.71568696e-04,  1.00487241e-02,  1.11035077e-02,
+        7.66076769e-03,  6.09399856e-03, -7.82085744e-03, -1.77682653e-03,
+        1.22166617e-02, -3.13524807e-03,  8.16868591e-03, -1.11061868e-02,
+       -7.14981427e-03,  4.79437208e-03,  8.57473232e-04, -1.82215531e-02,
+        2.69489894e-03, -5.73131764e-03, -1.31572604e-02,  2.60479073e-02,
+       -1.58494321e-02, -1.56567899e-02, -1.07664243e-02,  3.10124545e-03,
+        1.44920778e-03,  1.44416003e-02,  1.30064818e-03, -2.39298824e-02,
+       -1.53941853e-02, -3.09967823e-03,  1.06799682e-02,  1.12809444e-02,
+       -1.98656795e-03, -9.74748182e-03, -8.55579355e-05, -1.49545810e-02,
+       -8.20594399e-03, -9.71261975e-03,  2.37270406e-02,  1.75398630e-02,
+        3.18580436e-02,  5.61648770e-03, -2.14739597e-02, -2.49516019e-02,
+       -1.19725542e-02, -2.99367555e-03, -8.64040922e-04,  5.90822070e-03,
+       -3.70636678e-03,  1.58270798e-02, -1.31087685e-02, -7.29353507e-04,
+       -4.11038505e-03, -4.83093194e-03,  6.98479823e-03,  1.78329905e-02,
+        1.89345680e-03,  2.38329956e-02, -8.08870213e-03,  8.19818618e-03,
+       -1.66063518e-02,  3.47795704e-03, -8.53988147e-03,  1.18254797e-02,
+        5.40957247e-03,  4.84788964e-03, -3.56222855e-03,  4.22772530e-04,
+       -2.89700030e-03, -4.23552277e-03, -2.39113569e-03, -3.70106955e-03,
+       -4.13139632e-03,  5.64679903e-03, -7.67472845e-03,  7.98913299e-03,
+       -1.17060463e-02,  1.03553667e-03,  5.81544877e-03,  1.44301218e-02,
+        1.47173133e-03, -4.69459064e-03, -3.82249524e-03, -1.24906051e-02,
+        1.15734159e-02,  1.08599930e-04, -9.56935283e-04, -2.49475029e-03,
+       -1.17664125e-03, -1.44934823e-03,  1.51109630e-03, -3.89785735e-03,
+        2.12512475e-03, -2.65043993e-04,  7.74208453e-03,  2.94724435e-03,
+        6.35593784e-03, -8.90368196e-03,  4.32708144e-03, -9.08472079e-03,
+        1.60058652e-03, -4.71353412e-04,  4.25646808e-04, -3.42346624e-04,
+       -2.38228320e-04]), array([[-0.06528456,  0.12760249],
+       [-0.08531144,  0.10757561],
+       [-0.13293116,  0.05995589],
+       [ 0.00029591,  0.19318295],
+       [-0.06945421,  0.12343283],
+       [ 0.00587701,  0.19876406],
+       [-0.15581356,  0.03707349],
+       [-0.03359214,  0.15929491],
+       [-0.08767697,  0.10521007],
+       [-0.10504185,  0.0878452 ],
+       [-0.12427184,  0.06861521],
+       [-0.11972305,  0.073164  ],
+       [-0.08855419,  0.10433285],
+       [-0.10103057,  0.09185647],
+       [-0.12136322,  0.07152382],
+       [-0.10626208,  0.08662497],
+       [-0.10891407,  0.08397297],
+       [-0.09076788,  0.10211916],
+       [-0.01961371,  0.17327334],
+       [-0.16964518,  0.02324187],
+       [-0.07533573,  0.11755131],
+       [-0.14402888,  0.04885817],
+       [-0.0749615 ,  0.11792554],
+       [-0.0707757 ,  0.12211134],
+       [-0.11230263,  0.08058441],
+       [-0.04230884,  0.15057821],
+       [-0.12470165,  0.0681854 ],
+       [-0.05485141,  0.13803564],
+       [-0.08104508,  0.11184197],
+       [-0.03546276,  0.15742429],
+       [-0.14557686,  0.04731019],
+       [-0.14629567,  0.04659137],
+       [-0.14738178,  0.04550527],
+       [-0.09678639,  0.09610066],
+       [-0.1064896 ,  0.08639745],
+       [-0.14832138,  0.04456567],
+       [-0.0714225 ,  0.12146454],
+       [-0.13267793,  0.06020912],
+       [-0.06555076,  0.12733629],
+       [-0.11788846,  0.07499858],
+       [-0.13604798,  0.05683906],
+       [-0.11537092,  0.07751613],
+       [-0.11843775,  0.07444929],
+       [-0.03247298,  0.16041407],
+       [-0.04814649,  0.14474056],
+       [-0.06665417,  0.12623288],
+       [-0.02307144,  0.16981561],
+       [-0.04869546,  0.14419159],
+       [-0.13201397,  0.06087308],
+       [-0.07121128,  0.12167576],
+       [-0.20386708, -0.01098003],
+       [-0.21754122, -0.02465418],
+       [-0.10923543,  0.08365162],
+       [-0.12531162,  0.06757542],
+       [-0.16740853,  0.02547851],
+       [-0.08006046,  0.11282658],
+       [-0.11713538,  0.07575166],
+       [-0.11335362,  0.07953343],
+       [-0.11730024,  0.07558681],
+       [-0.11507708,  0.07780996],
+       [-0.06055538,  0.13233167],
+       [-0.10664551,  0.08624154],
+       [-0.02882667,  0.16406037],
+       [-0.05642234,  0.13646471],
+       [-0.09804417,  0.09484288],
+       [-0.07232747,  0.12055958],
+       [-0.04911524,  0.1437718 ],
+       [-0.13765738,  0.05522967],
+       [-0.16484078,  0.02804626],
+       [-0.19720682, -0.00431977],
+       [-0.14366484,  0.0492222 ],
+       [-0.1407729 ,  0.05211414],
+       [-0.17267557,  0.02021147],
+       [-0.08679427,  0.10609277],
+       [-0.05921504,  0.133672  ],
+       [-0.02299217,  0.16989487],
+       [-0.13456902,  0.05831802],
+       [-0.04300789,  0.14987915],
+       [-0.14475125,  0.0481358 ],
+       [-0.07535381,  0.11753323],
+       [-0.1087498 ,  0.08413725],
+       [-0.16184223,  0.03104482],
+       [-0.03614721,  0.15673984],
+       [-0.14112464,  0.0517624 ],
+       [-0.03072635,  0.1621607 ],
+       [-0.11570252,  0.07718453],
+       [-0.13588148,  0.05700556],
+       [-0.16670113,  0.02618591],
+       [ 0.00252889,  0.19541593],
+       [-0.21775487, -0.02486783],
+       [-0.06694744,  0.1259396 ],
+       [-0.12754055,  0.06534649],
+       [ 0.00819275,  0.2010798 ],
+       [-0.02488929,  0.16799776],
+       [-0.10583   ,  0.08705704],
+       [-0.11025298,  0.08263406],
+       [-0.12402269,  0.06886435],
+       [-0.0955659 ,  0.09732114],
+       [-0.08997248,  0.10291457],
+       [-0.11454279,  0.07834426],
+       [-0.11052235,  0.0823647 ],
+       [-0.09741536,  0.09547169],
+       [-0.11557864,  0.07730841],
+       [-0.04095865,  0.15192839],
+       [-0.19691588, -0.00402883],
+       [-0.09414789,  0.09873916],
+       [-0.02648479,  0.16640226],
+       [-0.10122276,  0.09166429],
+       [-0.06955628,  0.12333077],
+       [-0.13165843,  0.06122862],
+       [-0.13609566,  0.05679138],
+       [-0.11283138,  0.08005566],
+       [-0.09416505,  0.09872199],
+       [-0.16819455,  0.02469249],
+       [-0.07677049,  0.11611655],
+       [-0.02519111,  0.16769594],
+       [-0.10934932,  0.08353772],
+       [-0.11098545,  0.08190159],
+       [-0.06331378,  0.12957327],
+       [-0.09220418,  0.10068287],
+       [-0.10386569,  0.08902136],
+       [-0.12133331,  0.07155373],
+       [-0.09101873,  0.10186832],
+       [-0.08174441,  0.11114264],
+       [-0.03894117,  0.15394588],
+       [-0.16210569,  0.03078135],
+       [-0.03671009,  0.15617696],
+       [-0.07131734,  0.12156971],
+       [-0.02225796,  0.17062909],
+       [-0.15733859,  0.03554845],
+       [-0.09664031,  0.09624674],
+       [-0.11345191,  0.07943513],
+       [-0.09130006,  0.10158698],
+       [-0.02925677,  0.16363027],
+       [-0.13198625,  0.06090079],
+       [-0.09054401,  0.10234304],
+       [-0.07466763,  0.11821942],
+       [-0.0735698 ,  0.11931725],
+       [-0.01468364,  0.1782034 ],
+       [-0.06100986,  0.13187719],
+       [-0.05737978,  0.13550726],
+       [-0.04933945,  0.14354759],
+       [-0.07380639,  0.11908066],
+       [-0.12429907,  0.06858798],
+       [-0.18746635,  0.0054207 ],
+       [-0.09873665,  0.0941504 ],
+       [-0.18864807,  0.00423898],
+       [-0.05541316,  0.13747389],
+       [-0.15571742,  0.03716962],
+       [-0.07180849,  0.12107856],
+       [-0.054981  ,  0.13790604],
+       [-0.12622017,  0.06666688],
+       [-0.13309945,  0.05978759],
+       [-0.11144075,  0.08144629],
+       [-0.07368367,  0.11920337],
+       [-0.08175787,  0.11112918],
+       [-0.06626291,  0.12662413],
+       [-0.05388985,  0.1389972 ],
+       [-0.10742452,  0.08546252],
+       [-0.15860845,  0.03427859],
+       [-0.07874434,  0.11414271],
+       [-0.10555237,  0.08733468],
+       [-0.12436724,  0.06851981],
+       [-0.1068708 ,  0.08601624],
+       [-0.07106029,  0.12182676],
+       [-0.08910213,  0.10378492],
+       [-0.15254374,  0.04034331],
+       [-0.09552756,  0.09735949],
+       [-0.09440777,  0.09847928],
+       [-0.10715631,  0.08573073],
+       [-0.16708027,  0.02580678],
+       [-0.07092018,  0.12196686],
+       [-0.1387896 ,  0.05409744],
+       [-0.06173325,  0.13115379],
+       [-0.03587833,  0.15700872],
+       [-0.07842605,  0.114461  ],
+       [-0.06955211,  0.12333493],
+       [-0.07915626,  0.11373079],
+       [-0.09265715,  0.1002299 ],
+       [-0.13620206,  0.05668498],
+       [-0.0933844 ,  0.09950265],
+       [-0.13896716,  0.05391988],
+       [-0.12642337,  0.06646368],
+       [-0.08885506,  0.10403198],
+       [-0.1456237 ,  0.04726335],
+       [-0.12600188,  0.06688516],
+       [-0.06541742,  0.12746963],
+       [-0.12602058,  0.06686647],
+       [-0.11512859,  0.07775846],
+       [-0.11280032,  0.08008673],
+       [-0.06812149,  0.12476556],
+       [-0.08466767,  0.10821938],
+       [-0.07592974,  0.1169573 ],
+       [-0.03387395,  0.15901309],
+       [-0.02767582,  0.16521122],
+       [-0.05244994,  0.14043711],
+       [-0.0387181 ,  0.15416894],
+       [-0.06418723,  0.12869982],
+       [-0.13447437,  0.05841268],
+       [-0.13887591,  0.05401114],
+       [-0.11858824,  0.07429881],
+       [-0.16319162,  0.02969542],
+       [-0.1738332 ,  0.01905385],
+       [-0.14716106,  0.04572598],
+       [-0.14741779,  0.04546925],
+       [-0.09522209,  0.09766496],
+       [-0.08936505,  0.10352199],
+       [-0.10066078,  0.09222627],
+       [-0.08349709,  0.10938996],
+       [-0.08564374,  0.10724331],
+       [-0.05106473,  0.14182232],
+       [-0.07956768,  0.11331936],
+       [-0.09797477,  0.09491227],
+       [-0.07115332,  0.12173372],
+       [-0.0918476 ,  0.10103944],
+       [-0.11423149,  0.07865555],
+       [-0.0817371 ,  0.11114995],
+       [-0.10844394,  0.0844431 ],
+       [-0.06289331,  0.12999373],
+       [-0.08463184,  0.10825521],
+       [-0.10066388,  0.09222316],
+       [-0.12559691,  0.06729014],
+       [-0.08331724,  0.10956981],
+       [-0.09270746,  0.10017959],
+       [-0.14908274,  0.0438043 ],
+       [-0.06782079,  0.12506626],
+       [-0.12586939,  0.06701765],
+       [-0.10657018,  0.08631687],
+       [-0.07042369,  0.12246335],
+       [-0.07307053,  0.11981652],
+       [-0.09791147,  0.09497557],
+       [-0.12243409,  0.07045295],
+       [-0.07237293,  0.12051412],
+       [-0.11328857,  0.07959847],
+       [-0.13718   ,  0.05570704],
+       [-0.12908936,  0.06379768],
+       [-0.09326198,  0.09962507],
+       [-0.07679943,  0.11608762],
+       [-0.11696924,  0.07591781],
+       [-0.08222434,  0.11066271],
+       [-0.09257656,  0.10031048],
+       [-0.11878021,  0.07410684],
+       [-0.11411001,  0.07877703],
+       [-0.08454921,  0.10833784],
+       [-0.06370647,  0.12918058],
+       [-0.11711222,  0.07577482],
+       [-0.04788279,  0.14500425],
+       [-0.13019842,  0.06268862],
+       [-0.07086047,  0.12202658],
+       [-0.12383109,  0.06905596],
+       [-0.14530401,  0.04758304],
+       [-0.12345794,  0.06942911],
+       [-0.14358088,  0.04930617],
+       [-0.11906758,  0.07381947],
+       [-0.0856013 ,  0.10728575],
+       [-0.06358425,  0.12930279],
+       [-0.10050676,  0.09238028],
+       [-0.08551301,  0.10737404],
+       [-0.0571627 ,  0.13572435],
+       [-0.0567502 ,  0.13613685],
+       [-0.15790948,  0.03497757],
+       [-0.10123673,  0.09165032],
+       [-0.10071213,  0.09217491],
+       [-0.08231896,  0.11056809],
+       [-0.09504277,  0.09784428],
+       [-0.06291225,  0.1299748 ],
+       [-0.12778691,  0.06510014],
+       [-0.05720301,  0.13568404],
+       [-0.0667959 ,  0.12609114],
+       [-0.08908361,  0.10380343],
+       [-0.11344766,  0.07943939],
+       [-0.09760886,  0.09527818],
+       [-0.07540701,  0.11748004],
+       [-0.08622352,  0.10666352],
+       [-0.04997445,  0.1429126 ],
+       [-0.09390805,  0.098979  ],
+       [-0.08768684,  0.10520021],
+       [-0.10098486,  0.09190219],
+       [-0.07388754,  0.1189995 ],
+       [-0.11781554,  0.07507151],
+       [-0.10046381,  0.09242324],
+       [-0.10333542,  0.08955163],
+       [-0.09882354,  0.0940635 ],
+       [-0.08033916,  0.11254789],
+       [-0.04353179,  0.14935526],
+       [-0.08759336,  0.10529368],
+       [-0.10409244,  0.08879461],
+       [-0.11113366,  0.08175339],
+       [-0.11082247,  0.08206457],
+       [-0.0934069 ,  0.09948014],
+       [-0.09864421,  0.09424283],
+       [-0.11469373,  0.07819331],
+       [-0.10579385,  0.0870932 ],
+       [-0.07433889,  0.11854816],
+       [-0.07905158,  0.11383547],
+       [-0.06237674,  0.1305103 ],
+       [-0.10866336,  0.08422369],
+       [-0.06931662,  0.12357042],
+       [-0.1130605 ,  0.07982655],
+       [-0.09341544,  0.09947161],
+       [-0.06656016,  0.12632689],
+       [-0.09299328,  0.09989377],
+       [-0.09424519,  0.09864185],
+       [-0.09160679,  0.10128026],
+       [-0.10366883,  0.08921822],
+       [-0.12657443,  0.06631261],
+       [-0.1047889 ,  0.08809814],
+       [-0.11777506,  0.07511198],
+       [-0.09570791,  0.09717913],
+       [-0.09681509,  0.09607195],
+       [-0.0863948 ,  0.10649225],
+       [-0.08534001,  0.10754703],
+       [-0.08878276,  0.10410429],
+       [-0.09034952,  0.10253752],
+       [-0.10426438,  0.08862267],
+       [-0.09822035,  0.0946667 ],
+       [-0.08422686,  0.10866018],
+       [-0.09957877,  0.09330827],
+       [-0.08827484,  0.10461221],
+       [-0.10754971,  0.08533734],
+       [-0.10359334,  0.08929371],
+       [-0.09164915,  0.10123789],
+       [-0.09558605,  0.097301  ],
+       [-0.11466508,  0.07822197],
+       [-0.09374862,  0.09913842],
+       [-0.10217484,  0.09071221],
+       [-0.10960078,  0.08328626],
+       [-0.07039562,  0.12249143],
+       [-0.11229295,  0.08059409],
+       [-0.11210031,  0.08078673],
+       [-0.10720995,  0.0856771 ],
+       [-0.09334228,  0.09954477],
+       [-0.09499431,  0.09789273],
+       [-0.08200192,  0.11088512],
+       [-0.09514287,  0.09774417],
+       [-0.12037341,  0.07251364],
+       [-0.11183771,  0.08104934],
+       [-0.0995432 ,  0.09334384],
+       [-0.08576355,  0.10712349],
+       [-0.08516258,  0.10772447],
+       [-0.09843009,  0.09445695],
+       [-0.106191  ,  0.08669604],
+       [-0.09652908,  0.09635796],
+       [-0.1113981 ,  0.08148894],
+       [-0.10464947,  0.08823758],
+       [-0.10615614,  0.0867309 ],
+       [-0.07271648,  0.12017056],
+       [-0.07890366,  0.11398339],
+       [-0.06458548,  0.12830157],
+       [-0.09082704,  0.10206001],
+       [-0.11791748,  0.07496956],
+       [-0.12139512,  0.07149192],
+       [-0.10841608,  0.08447097],
+       [-0.0994372 ,  0.09344985],
+       [-0.09730756,  0.09557948],
+       [-0.0905353 ,  0.10235174],
+       [-0.10014989,  0.09273716],
+       [-0.08061644,  0.1122706 ],
+       [-0.10955229,  0.08333475],
+       [-0.09717288,  0.09571417],
+       [-0.10055391,  0.09233314],
+       [-0.10127445,  0.09161259],
+       [-0.08945872,  0.10342832],
+       [-0.07861053,  0.11427651],
+       [-0.09455007,  0.09833698],
+       [-0.07261053,  0.12027652],
+       [-0.10453222,  0.08835482],
+       [-0.08824534,  0.10464171],
+       [-0.11304987,  0.07983717],
+       [-0.09296557,  0.09992148],
+       [-0.1049834 ,  0.08790364],
+       [-0.08461804,  0.108269  ],
+       [-0.09103395,  0.1018531 ],
+       [-0.09159563,  0.10129141],
+       [-0.10000575,  0.09288129],
+       [-0.09602075,  0.0968663 ],
+       [-0.09934052,  0.09354652],
+       [-0.10067905,  0.092208  ],
+       [-0.09883466,  0.09405239],
+       [-0.10014459,  0.09274245],
+       [-0.10057492,  0.09231213],
+       [-0.09079672,  0.10209032],
+       [-0.10411825,  0.08876879],
+       [-0.08845439,  0.10443266],
+       [-0.10814957,  0.08473748],
+       [-0.09540799,  0.09747906],
+       [-0.09062807,  0.10225897],
+       [-0.0820134 ,  0.11087364],
+       [-0.09497179,  0.09791525],
+       [-0.10113811,  0.09174893],
+       [-0.10026602,  0.09262103],
+       [-0.10893413,  0.08395292],
+       [-0.08487011,  0.10801694],
+       [-0.09633492,  0.09655212],
+       [-0.09740046,  0.09548659],
+       [-0.09893827,  0.09394877],
+       [-0.09762016,  0.09526688],
+       [-0.09789287,  0.09499417],
+       [-0.09493243,  0.09795462],
+       [-0.10034138,  0.09254567],
+       [-0.0943184 ,  0.09856865],
+       [-0.09670857,  0.09617848],
+       [-0.08870144,  0.10418561],
+       [-0.09349628,  0.09939077],
+       [-0.09008758,  0.10279946],
+       [-0.1053472 ,  0.08753984],
+       [-0.09211644,  0.1007706 ],
+       [-0.10552824,  0.0873588 ],
+       [-0.09484294,  0.09804411],
+       [-0.09691488,  0.09597217],
+       [-0.09601788,  0.09686917],
+       [-0.09678587,  0.09610118],
+       [-0.09668175,  0.09620529]]))</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.08032379199680183</v>
+        <v>0.03115896349627826</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1030889000660513</v>
+        <v>0.5277403893624137</v>
       </c>
     </row>
     <row r="5">
@@ -724,233 +1148,251 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[ 2.79089802e-02  2.62640080e-02 -4.48533691e-03  1.76150447e-02
- -8.08828627e-03 -3.04720605e-02  7.06245252e-02  1.08246022e-02
- -7.19430289e-04 -5.76733528e-02  3.12346721e-02  1.72477335e-04
- -4.37267693e-02 -4.54896571e-02 -3.17255588e-02  2.29749093e-02
-  3.49706678e-02 -1.56210727e-02  3.26449855e-02 -1.25828109e-02
-  2.87293674e-03  1.59949918e-02  4.65718864e-02 -1.03846680e-02
- -2.92634998e-02  1.80212698e-02  5.43790680e-02  6.88778235e-02
- -4.53162179e-03 -2.21919308e-02 -1.96670490e-02 -1.90350553e-02
-  4.11227137e-02 -2.34265712e-02 -9.25019582e-02 -2.69869284e-02
-  7.49239524e-02  1.93733457e-02 -5.04257453e-02 -6.08059248e-03
-  1.94320873e-02  1.88012007e-02  7.57026974e-03  3.15986606e-02
- -2.47602464e-02 -2.53222434e-03  1.66755153e-02  2.64389072e-02
-  9.86286263e-02  7.06384782e-03 -2.81799244e-02 -3.31064076e-02
-  5.69375816e-02  4.65002363e-02  2.38555494e-03  1.23224702e-02
- -1.86582136e-02  2.35401967e-02  1.42493172e-02 -3.26991080e-02
- -2.61996135e-02 -4.86266972e-02  3.48250152e-02 -2.40695019e-02
- -9.22935244e-04 -8.42627322e-02 -9.30587410e-03  4.12560965e-02
-  2.22327728e-03  1.31226774e-02 -1.89085115e-02  1.47675724e-03
-  1.61103651e-02  5.04020035e-02  2.35187443e-02  7.20867351e-03
-  1.05281606e-02  4.59464428e-03 -9.17722546e-03  2.37850824e-02
- -5.18439106e-03  7.67596156e-03 -5.48071308e-02  2.24396977e-02
- -6.26976422e-02 -1.93971714e-02 -4.41267270e-02  9.98062653e-03
-  1.07653521e-02 -4.95505310e-02  7.44615678e-03  4.74965279e-02
- -1.11709195e-02  2.36302240e-02  3.59378295e-02  7.36952759e-02
-  1.00223797e-02  6.68590709e-02  1.17900144e-01  9.23083539e-02
- -2.66903915e-02 -4.78961312e-04  6.90767560e-02  6.81487176e-02
-  1.05566769e-02 -2.66953263e-02 -6.46695647e-02  4.62791939e-02
-  1.93776128e-03 -1.44891506e-02 -8.72401237e-02 -4.67473208e-02
- -2.23161261e-02  1.50422867e-01 -1.13271098e-02  2.83165793e-02
- -3.93790647e-02  3.31315791e-03  3.62583118e-02  6.57675421e-02
- -5.15380889e-02 -6.29843483e-02  9.46705690e-02  2.75837967e-02
-  4.62630862e-02 -8.30129808e-03 -3.89399088e-03 -4.87652122e-03
- -2.03392183e-02  7.78795908e-02  1.87056994e-02 -6.44718348e-02
-  1.81576500e-02 -3.52479569e-02 -2.32339274e-02  3.90090397e-02
-  1.59367102e-03 -5.06031857e-03  3.38901192e-03 -1.06044557e-02
-  5.21870488e-02 -3.66059589e-02  5.92577143e-03  2.55625882e-02
-  8.38394075e-03 -6.70591283e-02  9.53025914e-03  2.23828026e-02
-  3.60465305e-02 -4.61695877e-03 -4.58413294e-02 -6.08370188e-02
- -2.42562070e-02 -3.62252793e-02 -1.60522934e-02 -2.99049770e-02
- -5.72408385e-02 -3.30630374e-02 -2.13867102e-02 -3.77566873e-02
- -4.33351652e-02 -4.99121323e-02 -3.89770606e-02  2.19997293e-03
-  3.26652046e-02 -1.53520696e-02  2.20285943e-02  2.61761332e-03
- -4.88987570e-03  6.56493483e-03  2.93529581e-04 -7.30297998e-03
- -5.26039170e-03  2.12361586e-02  6.49402288e-02 -4.73944276e-02
- -2.74358434e-02  1.80660742e-02  3.63271970e-03  1.80759858e-02
-  8.45304058e-03 -4.85128879e-02 -3.22418624e-02 -1.34750571e-02
-  4.93718099e-03 -6.40182603e-02 -3.45159672e-02  4.83102068e-02
-  1.94709670e-02  2.25667783e-02  4.46243917e-02 -1.76101355e-03
- -8.48164632e-03  7.10191098e-02  4.52923123e-02  1.68778536e-02
-  2.72989725e-02 -5.33182821e-04  3.32609869e-02  6.35981627e-02
-  1.27062937e-02 -2.62873864e-02 -2.68158896e-02 -5.28937970e-02
- -1.71515251e-02 -4.62767701e-02 -9.19810909e-03  2.01463897e-02
-  7.06577182e-02 -5.55211803e-02 -3.30718105e-02 -6.99589832e-02
- -1.91342591e-02  4.15902986e-02  4.89543334e-02  1.73995528e-02
-  2.75073675e-02  3.79227790e-02  3.60189452e-02  4.38899696e-02
- -4.40704249e-02 -5.69581467e-03  2.52843213e-02 -1.20649105e-03
-  3.55935052e-02 -5.12262981e-04 -7.71919107e-02  1.54942920e-02
- -2.89224521e-02  2.61154431e-02 -6.63472566e-02 -4.35244505e-02
-  1.16492286e-02 -8.06303314e-04 -2.46320653e-03  4.76462327e-02
-  2.47786844e-02 -5.15431424e-02 -4.82955581e-02  7.70025198e-02
-  4.88709780e-04  5.35346913e-03 -4.79491408e-02  2.99600925e-02
- -8.70222599e-04  2.37816822e-02 -4.58217349e-02 -2.91824286e-02
- -5.22884385e-02  2.88878162e-02  4.65389431e-02 -4.77362559e-03
- -1.94092377e-02  1.74493415e-02  3.49792861e-02  8.74459264e-03
-  1.78937074e-02  7.62687380e-02  4.63201793e-02  6.35337594e-02
-  6.15687256e-02  1.04232080e-02 -3.91659488e-02 -3.25819726e-03
-  2.02990871e-02 -8.54886551e-02 -1.12186589e-02 -2.25448249e-02
- -4.20507103e-02  1.04037146e-02 -2.79340183e-02  3.88748425e-02
- -8.96939796e-02 -1.28871263e-03  1.82382535e-02  1.80282543e-02
- -2.88763229e-02 -4.61224194e-03  5.18869099e-04  1.50314356e-03
-  4.07469434e-02 -4.05688178e-03 -1.30979462e-02 -3.34895378e-02
- -5.31600342e-02 -6.14289109e-02 -4.42244090e-02  4.97254094e-04
-  1.74491438e-02 -5.35697159e-02 -4.85356544e-02  6.37711707e-03
- -9.21985668e-03 -1.51972229e-02 -2.23251913e-03 -2.12637255e-02
-  2.50056590e-02  3.65314383e-03 -1.57432227e-02  1.07564688e-02
- -1.61753676e-02  5.27932662e-02  2.27286168e-02 -1.69619891e-04
-  2.43471532e-02  1.12553145e-02  3.03312470e-02  1.48673055e-03
-  8.05022729e-04 -8.51630274e-03 -1.72370393e-02 -2.54432579e-02
- -4.22160101e-03 -2.44421979e-03 -1.92757893e-02 -1.63015270e-02
- -4.36352151e-02 -5.88899071e-03  1.38625547e-02 -1.40870046e-02
-  1.59784238e-02 -1.70982610e-02  3.27969687e-02  3.71774454e-04
-  2.90667846e-02 -1.79518394e-02  5.61727927e-03  8.18192030e-03
-  1.60509381e-02  2.24164654e-02  2.52107427e-02 -1.26497359e-02
- -1.26474609e-02 -2.57369879e-03  2.18736723e-02  1.81726054e-02
-  3.05570355e-02 -2.03783078e-02  3.82958686e-02  6.76827805e-03
-  2.97148931e-02 -3.52509401e-03 -2.23566596e-02  2.80995875e-02
- -2.86887483e-03  2.47712458e-02  1.65413947e-02  1.77353957e-02
-  2.68735073e-03  1.03065131e-02 -5.35668713e-03 -2.43966955e-02
-  2.10217495e-02  7.55553396e-03  2.37285905e-02  1.27579318e-02
- -5.35832610e-03  8.18439567e-03  2.08523925e-02 -5.52283103e-04
- -3.14462086e-02 -2.68108470e-02 -1.44275923e-02  1.06497704e-02
-  4.39266901e-03 -2.63704788e-02 -5.43431254e-03  8.13678650e-03
-  2.76248714e-02  2.63326124e-02 -2.12153151e-02 -8.20187069e-04
- -5.90808290e-03  2.19335434e-02 -4.50414723e-03 -4.10939432e-03
-  1.72228944e-02  3.41700081e-03 -1.90588807e-02  2.16386112e-02
- -1.52175555e-02 -3.97067760e-02  6.49919703e-03  5.90842619e-03
- -4.52485498e-03 -5.58507953e-03 -6.56993950e-03  3.48514623e-02
- -3.50303772e-03 -1.50216413e-02 -5.25864266e-03 -2.31618962e-02
- -2.83176880e-02  1.44043549e-02 -2.32747926e-02 -2.76150473e-03
-  1.50722324e-02  2.33255269e-02 -9.29093123e-03 -1.63335911e-02
-  3.11202327e-02  7.19283073e-03 -2.63346577e-02 -1.48185891e-02
-  7.33673494e-04  3.13216714e-02 -2.09085204e-02 -2.00757354e-02
- -4.34626669e-03  6.16622888e-03  1.50154872e-02 -2.23344099e-02
- -4.66583916e-02  8.15263414e-03  2.52176184e-02  1.29971183e-03
- -1.52920105e-02 -5.24125041e-04  1.10258195e-02  1.31215519e-02
-  8.70380558e-03 -1.73494152e-02  1.58077174e-02  1.45576940e-02
- -3.56346293e-03 -2.51493170e-03  5.83042637e-04  2.62389493e-02
-  8.61788088e-03  1.59811408e-03  1.33363516e-04 -1.33159106e-02
-  1.21585552e-02 -3.09366637e-03  1.09763919e-02 -1.20953763e-02
- -2.44500162e-02  2.06663609e-02  5.49915327e-03 -1.25064713e-02
-  1.08255197e-02 -2.22786430e-02 -5.24274761e-03  4.82875931e-03
- -1.30922438e-02  6.43015566e-03 -4.81373453e-03 -3.02226328e-02
-  2.13708464e-02 -1.04267605e-02  2.78496726e-03 -3.53392293e-02
- -1.16268953e-02 -1.05061929e-02 -9.56133643e-03 -1.64419722e-02
-  4.01037922e-04  1.76875295e-02 -2.38227060e-02  1.94454763e-02
- -1.08628394e-02  1.19940682e-02  3.71511247e-02  1.76073262e-02
-  2.90713477e-02 -5.53910199e-03  4.05628017e-03  2.14066927e-02
-  7.11044352e-04  1.22471506e-03 -1.72324382e-02  6.42763677e-03
- -9.44687528e-03 -2.08626296e-03 -2.02707130e-02 -1.96151576e-02
- -4.54283334e-03 -1.77776073e-02  2.56339901e-02  7.34857085e-03
-  4.49839536e-02 -1.55679950e-03 -5.93113816e-03 -4.14111623e-03
- -8.69905377e-03  3.49123954e-03  5.25194743e-03  1.34541693e-02
-  2.45466660e-03  4.11208725e-03  3.14569890e-03 -2.03858991e-02
- -2.36933476e-02  5.03347805e-03 -4.14295965e-03 -4.00850611e-03
- -6.79648983e-03  2.19726246e-03 -5.16486050e-03 -2.35491081e-02
-  1.57518657e-02 -4.55687310e-03 -1.35710876e-02 -6.09865046e-03
-  1.24076795e-02  5.55415341e-03 -5.88571424e-04  2.98086015e-02
-  1.81846992e-02  2.35665043e-02  2.69253972e-02 -1.19262755e-03
- -3.11718311e-03  1.10819865e-02 -3.34414878e-03 -9.14648913e-03
- -4.23707674e-02 -4.71010726e-04 -5.23788199e-03 -1.47244181e-02
- -2.35746732e-02 -3.33808544e-02 -1.28495471e-02  1.78928236e-03
- -1.49976401e-02 -1.67390589e-02 -4.89563082e-03  1.57505570e-02
-  2.14391848e-02 -4.85022588e-03 -4.02228225e-03 -1.41757891e-02
-  9.92356526e-03  8.77518830e-03 -6.81013805e-03 -4.98693139e-03
-  9.26601658e-03 -5.11727995e-03 -1.91147852e-02 -1.62758673e-02
- -1.37022712e-02  1.07949905e-03  1.03052827e-02 -1.86133688e-02
-  8.36763764e-04 -3.13079434e-03 -1.27472507e-02  6.09009145e-03
-  3.31816864e-03  8.03590491e-03 -4.27415867e-03  9.74390251e-04
-  9.38382211e-03 -3.17850693e-03  3.71410220e-03  2.41731040e-03
-  4.45087278e-03  7.44242373e-03  2.32461941e-02  1.53694691e-02
-  8.24169263e-03 -1.85095955e-03  2.20055228e-03  2.86721888e-03
- -1.25774036e-02  6.19111918e-03 -1.37812259e-02  2.03005750e-03
-  8.40028716e-03 -4.88829402e-03 -1.50092922e-02 -6.94990229e-03
- -2.92220837e-03  1.20040785e-03  5.93008879e-03  5.68607335e-05
- -8.82746068e-03 -9.45684696e-03  8.84214476e-03  1.81572718e-03
- -7.68323547e-03 -2.15010923e-03  7.81254532e-03  2.63984128e-04
-  6.75268123e-04  6.61709041e-03  1.38657354e-02  1.11354046e-02
-  8.67584423e-03  5.98175640e-03 -5.82228659e-03 -1.70507513e-02
- -1.41236289e-02 -9.11763914e-03 -6.22388098e-03 -1.58596094e-02
- -1.92875775e-02  3.61670922e-03 -5.47317785e-03 -1.87395658e-03
-  2.09275655e-03  1.62731364e-03  9.82977014e-04  1.44224445e-02
-  4.64888432e-03 -3.94400080e-03  9.46755743e-03  1.27298867e-02
-  1.50378451e-02  1.94354445e-03 -1.02659976e-04 -5.91742049e-03
-  6.39120827e-03  9.37175782e-03  8.36109335e-03  2.68017014e-04
- -4.85271592e-03 -1.05462581e-02 -1.74825774e-04 -1.23634954e-02
- -1.04542108e-02 -2.44789016e-03 -8.80243164e-04 -2.14743167e-03
- -1.50555061e-02  1.40511663e-03 -4.54691111e-03  1.25128261e-02
-  2.06400930e-02  2.02560168e-02 -2.82227016e-03 -2.27397026e-04
-  1.18573901e-02 -1.29523860e-03 -3.27519385e-03 -4.01087942e-03
-  8.17509365e-05  7.09481165e-03  7.31132434e-03  2.62808547e-03
- -7.77549875e-03 -8.85897098e-03  4.12577406e-03 -8.69392071e-03
- -4.19162368e-04 -6.95824310e-03  9.40096072e-03 -2.07051299e-03
-  1.36211194e-03  9.91842641e-03  6.27366252e-03  1.58723732e-02
- -5.94040239e-03  1.46985131e-02  4.79611419e-03 -1.44492700e-03
- -4.23291276e-03 -1.29899598e-02 -2.36495751e-03 -4.88382312e-03
-  2.26786915e-03 -2.62391901e-03 -5.12434644e-03  1.11417105e-03
-  1.24199582e-03 -7.40039149e-03 -3.01016111e-03  7.94459400e-03
-  1.38690808e-02  3.21964781e-03  3.82289934e-03 -7.60405379e-03
- -9.24601967e-03 -4.15953719e-03 -1.85945599e-03 -1.27400415e-02
- -8.03932974e-03  3.15343222e-03  2.76739159e-03 -4.02405943e-04
-  2.24228744e-03  7.18290145e-03  3.28937893e-03  5.21739662e-03
-  3.30388249e-03  3.16488954e-03  5.14407211e-03 -5.93643162e-04
-  7.40454664e-04 -3.39284188e-03  3.64780940e-03 -6.19667726e-04
- -3.96819076e-03 -3.34199385e-03  4.13894959e-03  7.13312770e-04
- -7.69717269e-04 -3.91092951e-03  2.49119715e-03  1.65715876e-03
-  1.68191669e-03 -3.88255087e-04 -8.07019584e-05  2.25414794e-03
-  1.42736775e-03 -2.91708416e-04 -2.09306810e-03  5.42331417e-03
-  3.80427064e-03  5.00672796e-03 -1.80937222e-04  8.18153035e-05
- -2.64399322e-04 -1.75877847e-04  1.26188444e-03  9.26966883e-05
-  1.94384127e-03  9.69520268e-04  1.50204052e-03  6.35661805e-04
-  1.88126797e-05 -6.71992596e-05  1.17898238e-04  4.01729856e-04
- -2.45068665e-05]</t>
+          <t>(array([ 5.40535665e-02,  2.14382627e-02,  2.56991197e-02, -4.32210404e-02,
+       -5.82173671e-02,  6.38690509e-02,  3.84645757e-02, -2.25076171e-02,
+       -5.57765832e-02,  2.47314649e-02, -1.74978884e-02, -4.23085023e-02,
+       -1.20975274e-02, -7.69443023e-02,  2.13953994e-02,  3.18639939e-02,
+        8.32626355e-03, -3.89121430e-03,  1.54854114e-02, -2.38724578e-02,
+       -2.44448448e-03,  3.97487408e-02,  4.25753039e-03, -2.60380881e-02,
+        2.78982897e-02,  5.11642118e-02,  7.09807390e-02, -1.20932483e-02,
+       -2.59554148e-02, -1.87369364e-02, -2.44901637e-02,  1.44449835e-02,
+       -1.78692366e-02, -8.07938091e-02, -8.50562575e-04,  6.22524325e-02,
+       -1.57256168e-02, -5.44970428e-02,  2.11999442e-03, -1.02227010e-03,
+        3.76195346e-02, -1.53778072e-02,  3.80940509e-02, -4.60731638e-02,
+       -6.77734397e-03,  1.74690199e-02,  3.37933112e-02,  3.18204151e-02,
+        1.26610194e-02, -4.82883324e-02, -1.83726067e-02,  5.64145004e-02,
+        2.69631907e-02, -2.14801782e-03,  3.68018332e-02, -2.11569930e-02,
+        1.40627014e-02,  1.09755144e-02, -2.90997025e-02, -1.94506708e-02,
+       -5.10994265e-02,  3.12171026e-02, -6.62307972e-03, -1.09938954e-02,
+       -7.30196983e-02, -1.18687934e-02,  6.13008784e-02,  2.92972795e-02,
+       -6.91576630e-03, -3.35190351e-02,  7.12933321e-03, -5.10159574e-03,
+        5.27064820e-02,  2.36407801e-02,  1.08155239e-03, -2.51216922e-03,
+        9.33871425e-03, -4.13358873e-02,  9.51254362e-03, -7.18524525e-03,
+        2.77890190e-02, -5.94825502e-02,  1.68164538e-02, -7.30491777e-02,
+       -8.27228995e-03, -5.38403220e-02,  2.18973875e-02,  2.81999404e-02,
+       -4.99785935e-02,  4.73563707e-02,  5.74392468e-02, -2.05046811e-02,
+        2.92435443e-02,  3.25627502e-02,  5.84009797e-02,  3.90755961e-02,
+        3.87021021e-02,  1.01394203e-01,  8.99236181e-02, -3.27920518e-02,
+       -1.38335309e-02,  6.60731713e-02,  5.78113657e-02,  8.51416486e-04,
+       -4.39978830e-02, -2.83530818e-02,  4.58001031e-02,  2.62031625e-03,
+       -4.67848881e-02, -5.48774378e-02, -1.23118240e-02, -5.05222376e-03,
+        1.35108074e-01, -1.25168984e-02,  2.35879507e-02, -2.17384234e-02,
+       -1.74395940e-02,  2.67685616e-02,  7.57754235e-02, -4.66828334e-02,
+       -4.23686099e-02,  8.65025946e-02,  3.08225836e-02,  6.19508704e-02,
+       -3.25909364e-03, -8.35551871e-03, -6.94145283e-03, -9.51918869e-03,
+        9.09935307e-02,  2.80563857e-02, -7.94446450e-02,  1.57762894e-02,
+       -6.27049695e-02, -1.56606667e-02,  4.40003719e-02, -1.69351130e-03,
+       -1.19636017e-02,  1.99268649e-02, -2.71369449e-02,  7.54268283e-02,
+       -1.10011246e-02,  1.31365217e-02,  1.66632966e-02, -1.48918980e-02,
+       -7.26195330e-02,  4.32847693e-03,  1.03768593e-02,  1.62514953e-02,
+       -2.41876696e-02, -3.71870846e-02, -5.55553646e-02, -3.81978855e-03,
+       -5.81482592e-02, -4.43905393e-02, -4.81537922e-02, -5.16591341e-02,
+       -3.22298444e-02, -1.77216811e-02, -5.03907383e-02, -5.44170103e-02,
+       -8.98035703e-02, -4.71781769e-02,  1.17176429e-02,  1.43899391e-02,
+       -2.23908033e-02,  2.36108483e-02,  1.95066944e-03,  6.79958662e-03,
+        1.99353849e-02,  2.71601805e-03,  2.49038525e-02,  3.20647894e-03,
+        3.62389863e-02,  4.36372008e-02, -2.51358423e-02, -2.77123818e-02,
+        1.79122333e-02,  2.31521256e-02,  3.66656535e-02,  6.10238602e-03,
+       -4.65747984e-02, -4.09360322e-02, -1.91865147e-02, -5.50837363e-03,
+       -5.73251758e-02, -3.80543937e-02,  3.80415550e-02,  1.63861950e-02,
+        1.58450360e-02,  5.45709841e-02,  6.61470750e-03, -1.71306477e-02,
+        7.40005232e-02,  2.60360366e-02,  9.35510986e-03,  4.03736351e-02,
+       -8.84098343e-03,  2.63113718e-02,  8.08202813e-02,  8.98999323e-03,
+       -2.52433945e-02,  2.37353303e-03, -4.17272252e-02, -1.30007902e-02,
+       -1.98218302e-02, -1.58204680e-02,  3.74276431e-02,  5.64386809e-02,
+       -4.03002546e-02, -4.87621895e-02, -7.60134485e-02,  5.48097113e-04,
+        2.83967479e-02,  5.23942145e-02,  2.61552732e-02,  3.68295966e-02,
+        4.07498228e-02,  3.71542488e-02,  5.47173554e-02, -5.27725738e-02,
+        2.01328777e-02,  2.31339944e-02, -1.66024422e-02,  1.90922755e-02,
+        9.04930132e-03, -6.17480863e-02,  1.05426297e-02, -2.03916257e-02,
+        1.78745453e-02, -3.54012964e-02, -2.22591507e-03, -7.21571420e-03,
+       -8.76009425e-04, -3.66781000e-03,  6.38051448e-02,  2.39537008e-02,
+       -5.15026030e-02, -5.16676562e-02,  5.70753965e-02,  8.97003118e-03,
+       -7.06251810e-03, -2.58237343e-02, -8.81940639e-03, -4.70448071e-02,
+        1.86245301e-02, -3.27409957e-02, -1.93280088e-02, -4.11545982e-02,
+       -2.99187399e-03,  1.41875501e-02,  2.51863497e-02,  1.47757308e-02,
+        2.70384234e-02,  3.97762155e-03, -4.54577485e-03,  2.78155421e-02,
+        7.85857235e-02,  4.54661587e-02,  4.18192804e-02,  4.93047502e-02,
+       -1.33905415e-02, -3.52994594e-02,  1.40145195e-02,  1.83621044e-02,
+       -7.76619381e-02, -1.08482277e-02, -1.78043454e-03,  1.55644559e-02,
+        9.73626030e-03, -4.65231906e-02,  3.61224981e-02, -6.96672550e-02,
+       -1.04680198e-03,  2.69970056e-02, -1.72683868e-03, -6.76061889e-02,
+       -6.41491996e-03, -1.16240363e-02,  7.53002550e-03,  8.44255039e-03,
+       -1.23474881e-02, -1.66935155e-02, -4.54144483e-02, -5.09839420e-02,
+       -4.05228577e-02, -3.74528647e-02, -3.54378333e-02,  4.52997463e-02,
+       -3.79998186e-02, -3.36983849e-02, -5.86862371e-03, -1.29727468e-02,
+       -1.95211713e-02,  3.98217404e-03, -1.45708809e-02,  3.27474129e-02,
+        3.29545831e-03, -1.81027031e-02,  1.04456282e-02, -3.57321206e-03,
+        5.23041399e-02,  7.49392245e-03, -8.87889109e-03,  1.52963565e-02,
+        5.61500224e-03,  2.00887212e-02,  1.10255941e-02, -1.12295815e-02,
+       -4.10460424e-03, -1.11091958e-02, -1.86906032e-02, -5.32007135e-03,
+        5.28338878e-03, -1.54917200e-02, -4.70386723e-03, -3.82872961e-02,
+        3.05438623e-03,  4.06144965e-03, -1.49269513e-02,  1.60084341e-02,
+       -1.49059163e-02,  2.07879299e-02, -1.96936814e-02,  1.73738995e-02,
+       -1.51831042e-02, -2.74087133e-03,  2.10347448e-02,  8.28875623e-03,
+        2.85265103e-02,  3.81481562e-02, -1.96684567e-03, -1.51586462e-02,
+       -8.28430107e-03,  2.46848961e-02,  2.05934289e-02,  1.45129011e-02,
+       -2.62784012e-02,  3.99797559e-02,  9.62517730e-04,  2.86199089e-02,
+        2.10459842e-03, -3.04896979e-02,  3.28654925e-02,  8.22315810e-03,
+        2.75594919e-02,  3.94156678e-02,  1.72320343e-02,  1.99723036e-02,
+       -1.21397081e-03, -8.22952700e-03, -3.08833397e-02,  1.60233661e-02,
+        4.06627772e-03,  2.11535756e-02,  1.07506482e-02,  8.26958774e-04,
+        9.22049602e-03,  1.61117877e-02,  2.94064156e-03, -3.72696058e-02,
+       -1.58052357e-02, -6.50869572e-03,  8.91701294e-03, -1.23450769e-02,
+       -3.61632490e-02, -1.52217769e-02,  9.50555977e-03,  3.33670432e-02,
+        3.20678196e-02, -3.85288032e-02,  5.52208253e-03, -8.22626434e-03,
+        2.99566434e-02, -3.94853076e-03,  5.28189229e-03,  1.82509640e-02,
+        4.97447226e-03, -1.06992317e-02,  1.65969101e-02, -1.46606631e-02,
+       -2.77071834e-02,  2.04719218e-02, -1.46052820e-02,  5.89809490e-04,
+       -4.20143054e-03, -9.13601170e-03,  3.70970793e-02, -1.42771797e-02,
+       -2.68015245e-02,  2.15418850e-03, -2.62948831e-02, -3.03267006e-02,
+        4.71023908e-03, -2.10470086e-02, -3.24460173e-03,  1.85798069e-02,
+        1.72676355e-02, -1.62235271e-02, -8.10031631e-03,  2.35899481e-02,
+        1.31450558e-02, -2.97523709e-02, -2.55844629e-02, -6.35504467e-04,
+        2.24842503e-02, -1.69547233e-02, -2.62239132e-02,  6.04193088e-04,
+        1.54168997e-02,  1.33076951e-02, -1.99401803e-02, -4.17141236e-02,
+        6.73483507e-03,  2.59370653e-02, -1.00102364e-03, -2.02771968e-02,
+        3.45246286e-03,  1.39649681e-02,  1.93143057e-02,  6.88476106e-03,
+       -1.06668566e-02,  2.19951433e-02,  3.49412600e-02, -2.99021265e-03,
+        3.36997591e-03, -3.29575777e-03,  2.21901109e-02,  1.30189036e-02,
+       -3.24333165e-03,  6.86486879e-04, -1.54247493e-02,  1.76673970e-02,
+       -1.64316795e-02,  1.48728312e-02, -1.42395312e-02, -1.99564400e-02,
+        1.99842044e-02,  8.99470288e-03, -1.94808994e-02,  1.18428963e-02,
+       -2.57853810e-02, -5.49252748e-03, -6.07005417e-03, -1.40051689e-02,
+        2.06006544e-03, -3.60514992e-03, -3.82225090e-02,  1.73971951e-02,
+       -1.56654304e-02, -3.09866142e-03, -2.18865677e-02, -1.62393384e-02,
+       -7.42386038e-03, -5.01503240e-03, -2.22881528e-02,  9.43093463e-03,
+        2.91933416e-02, -1.57906924e-02,  1.43149182e-02, -4.53254976e-03,
+        2.17344195e-02,  4.28385411e-02,  1.64384495e-02,  1.56919976e-02,
+       -2.66754055e-03,  2.88563175e-04,  1.51875656e-02, -4.16433807e-04,
+        4.80578841e-05, -1.46113083e-02,  1.27205443e-02, -5.76466784e-03,
+       -1.49991579e-02, -1.17398690e-02, -8.91437292e-03, -1.04931755e-02,
+       -1.75687946e-02,  2.82327469e-02,  4.94895164e-03,  4.45333379e-02,
+        4.23267087e-04, -1.96849830e-02, -1.44346739e-02, -3.41742491e-03,
+        7.43573546e-04,  3.51844563e-03,  2.33281167e-03,  1.33558065e-02,
+        4.06866609e-04,  7.62529613e-03, -1.71497828e-02, -1.91964333e-02,
+        1.37982403e-03, -1.07494572e-03,  5.50670584e-03, -1.43597117e-02,
+        1.31348487e-02, -3.61192261e-03, -2.32647842e-02,  1.87799574e-02,
+       -6.49288373e-03, -1.33484180e-02, -5.66306859e-03,  1.49945445e-02,
+        4.64300500e-03,  4.76682849e-03,  3.21591642e-02,  1.31647077e-02,
+        2.88869460e-02,  1.25173253e-02, -1.06250129e-03, -3.03615463e-03,
+        1.13214798e-02, -5.41716128e-03, -1.64049924e-02, -4.12352186e-02,
+        3.45411266e-03,  6.49852334e-03, -1.76908784e-02, -2.89526054e-02,
+       -2.85803494e-02, -1.48079475e-02,  4.64276549e-03, -2.16125058e-02,
+       -1.86951541e-02, -4.27374192e-03,  1.29975966e-02,  2.26873474e-02,
+       -9.96859718e-04, -4.97629625e-03, -1.55927312e-02,  1.02457624e-02,
+        7.67733394e-03, -7.42608883e-03, -6.82748223e-03,  1.30472397e-02,
+       -1.08010664e-02, -1.67280050e-02, -9.95639506e-03, -1.51697932e-02,
+       -1.15748372e-03,  6.48851484e-03, -2.12813694e-02,  7.23079691e-05,
+        1.08488080e-03, -1.35994289e-02,  1.67565389e-03,  1.13580130e-03,
+        1.25072950e-02,  3.97682034e-03,  2.85497687e-03,  1.30398895e-03,
+       -6.00086129e-04, -1.63594517e-03,  2.76587572e-03,  5.57228302e-03,
+        1.03263404e-02,  2.27498730e-02,  1.72897077e-02,  1.35905879e-02,
+        5.31621364e-04,  6.61771957e-03,  3.38301579e-03, -1.32838176e-02,
+        5.54387424e-03, -1.16318804e-02,  2.24548125e-04,  6.16470936e-03,
+       -5.53150476e-03, -1.57420866e-02, -1.02242738e-02, -6.70430054e-03,
+        1.79711581e-03,  2.31813656e-03, -4.39591936e-04, -7.55370249e-03,
+       -9.17430213e-03,  5.30372575e-03,  6.04448715e-03, -4.74822684e-03,
+       -2.27663631e-03,  9.18726532e-03,  1.96264968e-04,  3.90271688e-03,
+        5.02017060e-03,  1.92749321e-02,  1.30691141e-02,  9.52249498e-03,
+        8.41629475e-04, -8.38558312e-03, -1.90149169e-02, -1.47728958e-02,
+       -8.81443644e-03, -8.38009045e-03, -2.18577572e-02, -1.69378172e-02,
+        6.50761834e-03, -2.33708866e-03,  7.74567245e-04,  3.54286841e-03,
+       -1.44751522e-03,  8.00416285e-04,  2.07919767e-02, -9.16570793e-04,
+       -4.52267495e-03,  8.90997538e-03,  1.38428588e-02,  1.31045309e-02,
+        5.88900590e-03,  3.05052018e-03, -2.21012718e-03,  8.14996985e-03,
+        9.27880838e-03,  7.09028282e-03, -1.37373687e-03, -5.56485118e-03,
+       -1.29654628e-02, -4.18931396e-03, -1.54892316e-02, -1.10131343e-02,
+       -3.75025591e-03,  6.21471474e-04, -4.75040700e-03, -1.03633686e-02,
+        3.99506646e-03, -1.95278177e-03,  1.02596337e-02,  2.19074423e-02,
+        2.14631218e-02, -5.66073714e-03,  8.65655614e-04,  6.85192011e-03,
+       -6.68516786e-03, -5.50128998e-03,  2.22865024e-04, -3.82444218e-04,
+        5.14844099e-03,  5.69025573e-03,  3.24660495e-03, -1.09649324e-04,
+       -3.96820537e-03,  3.18022970e-03, -9.69416679e-03,  8.58640722e-04,
+       -6.08309206e-03,  1.32185826e-02, -1.14499280e-03,  3.78785219e-04,
+        7.69074240e-03,  8.36097919e-03,  1.03954986e-02, -6.06613754e-03,
+        1.27316788e-02,  1.96885034e-03, -4.10740760e-03, -5.33356720e-03,
+       -1.03120800e-02, -3.93046087e-03, -2.18816958e-03, -5.13506581e-04,
+        9.68843404e-04, -3.15184280e-03,  4.34765031e-03, -9.31704200e-04,
+       -6.24747940e-03, -1.94754422e-03,  5.88766601e-03,  1.46655330e-02,
+        3.11226492e-04, -1.17897720e-03, -1.14207999e-02, -7.46440983e-03,
+       -9.19360738e-03, -4.40310059e-03, -8.67707065e-03, -6.75557621e-03,
+        7.44391070e-03,  1.11226611e-02,  1.07711032e-03,  3.39083463e-03,
+        8.85310009e-03,  7.04542594e-03,  2.32146187e-03,  3.07753076e-03,
+        4.57868845e-04,  2.05873949e-03, -1.16427061e-03, -2.60761609e-03,
+       -2.69656190e-03,  1.78238722e-03, -5.92208692e-04, -4.43002286e-03,
+       -3.86663181e-03,  5.38934979e-03, -4.51925362e-05,  2.50003986e-04,
+       -4.91389574e-03,  4.03031116e-03,  3.06656631e-03,  5.56791142e-04,
+       -1.07419164e-03,  1.18715990e-03,  3.17731519e-03,  1.90990949e-03,
+       -2.29613621e-04, -1.14018917e-03,  5.55219152e-03,  4.58288201e-03,
+        4.00186372e-03, -1.94092850e-03,  1.00920947e-03,  9.68618583e-05,
+        1.91361452e-04, -1.45051608e-03,  7.55411683e-04,  1.42607256e-03,
+        3.09915497e-03,  1.65428341e-03, -2.01781910e-04, -8.51781900e-04,
+       -9.48600245e-04,  3.51346719e-04,  4.05403347e-04,  2.83626637e-04,
+       -4.44235759e-04]), array([[-0.01873767,  0.1268448 ],
+       [-0.05135297,  0.0942295 ],
+       [-0.04709212,  0.09849035],
+       ...,
+       [-0.07238583,  0.07319664],
+       [-0.07250761,  0.07307486],
+       [-0.07323547,  0.072347  ]]))</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.02790898017652112</v>
+        <v>0.05405356653769249</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4530609300055915</v>
+        <v>0.1459494821009843</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>STORA ENSO</t>
+          <t>BP PLC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[ 1.83171906e-02  2.17759513e-02 -1.65457233e-02 ...  4.23232301e-04
- -2.13159938e-04 -2.20335488e-05]</t>
+          <t>(array([-7.44663275e-03, -1.32015048e-02,  8.75030642e-03, ...,
+        9.62369441e-05, -8.13637708e-05,  1.35149638e-05]), array([[-0.05646105,  0.04156779],
+       [-0.06221592,  0.03581291],
+       [-0.04026411,  0.05776473],
+       ...,
+       [-0.04891818,  0.04911066],
+       [-0.04909578,  0.04893306],
+       [-0.0490009 ,  0.04902793]]))</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01831719055815016</v>
+        <v>-0.007446632752843563</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4761977277415902</v>
+        <v>0.7660516225099145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BP PLC</t>
+          <t>STORA ENSO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-2.68087147e-02  1.23021816e-02  1.40289738e-02 ...  1.71145725e-04
-  2.08913494e-04  5.08472576e-05]</t>
+          <t>(array([ 4.60755749e-02, -1.27042579e-02, -3.29346412e-02, ...,
+       -7.14708925e-04, -7.00609269e-04, -5.57928219e-05]), array([[-0.00427933,  0.09643048],
+       [-0.06305916,  0.03765065],
+       [-0.08328955,  0.01742026],
+       ...,
+       [-0.05106961,  0.0496402 ],
+       [-0.05105551,  0.04965429],
+       [-0.0504107 ,  0.05029911]]))</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.02680871470436154</v>
+        <v>0.04607557491821644</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3187740042604673</v>
+        <v>0.07299346216450574</v>
       </c>
     </row>
     <row r="8">
@@ -961,29 +1403,127 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[-0.01016943  0.07971361  0.17584891  0.07646945  0.18927169  0.09348741
-  0.01707164 -0.03240401 -0.07476319  0.1898948  -0.07209226 -0.08508895
- -0.10212406  0.09181588  0.09873902 -0.12496455 -0.23947836 -0.05935728
- -0.03259289 -0.0332595   0.06458987  0.00570279 -0.05630809  0.05347987
-  0.05172646 -0.10789974  0.03319208 -0.06591731 -0.00877078  0.03029135
-  0.04136508  0.08776311 -0.15592025 -0.09327823 -0.03773164  0.00589626
- -0.07007354  0.07246588 -0.09974794 -0.08225433  0.06080992 -0.0540267
-  0.15832448 -0.04514243 -0.11545219 -0.06856278  0.08237047  0.12809003
-  0.0409349   0.0596899  -0.08231659  0.12595807  0.10943276 -0.14003542
- -0.08669968  0.04412617 -0.04864024 -0.02477473  0.14337608 -0.0491307
- -0.01384262  0.04549801 -0.10326699 -0.03980416  0.13176999  0.00741434
- -0.01983831  0.07055453  0.04465477  0.10277089 -0.02250828 -0.05176644
- -0.0400654   0.02285917 -0.00656644 -0.05372992  0.02232916 -0.0512269
-  0.02514839 -0.03082371 -0.02071359 -0.04250356  0.00762699  0.00903479
- -0.02238893  0.01755832  0.00771772  0.00550698  0.0016371   0.00293886
- -0.00126892]</t>
+          <t>(array([ 2.77190742e-02,  3.15180683e-01,  2.30000642e-02,  1.91217799e-01,
+        1.18913492e-01,  1.35153240e-01,  7.78256549e-03, -1.81566258e-01,
+        5.04746823e-02, -1.44575077e-01,  1.28447081e-02,  8.00633786e-03,
+        3.64909803e-02,  4.03753875e-02, -1.62263929e-01, -9.14683639e-02,
+       -1.03561972e-01, -1.79068711e-01, -1.67907520e-01,  1.21235033e-01,
+       -3.43265318e-02, -4.46451221e-03,  6.74640417e-02,  6.42037312e-02,
+       -2.68462516e-02,  1.07006786e-01,  1.51584213e-02, -1.25868685e-01,
+       -6.05911208e-02, -6.40035495e-02,  3.69130045e-02, -1.41320710e-01,
+       -6.17242472e-02, -9.13085189e-02,  2.52822410e-02, -5.68983093e-03,
+        1.79246627e-02, -3.26632339e-02, -9.25391122e-02, -2.30946781e-02,
+       -7.38961148e-02,  1.67659450e-01, -9.56452975e-02, -8.56298008e-02,
+        1.00006482e-02, -3.07100418e-02,  1.75467731e-01,  1.15798053e-01,
+       -2.01973174e-02, -1.68007236e-01,  1.07469506e-01,  9.72585159e-02,
+       -1.42892666e-01,  3.14732139e-02, -3.81314996e-03, -1.25678836e-01,
+        6.64373757e-02,  1.29610998e-01, -7.65441748e-02,  6.38432949e-03,
+        4.78458143e-02, -1.17624377e-01, -4.99971972e-02,  1.67521226e-01,
+        5.63214323e-03,  3.72967824e-02,  7.14704979e-02,  1.30992711e-03,
+        8.31029036e-02, -3.04518973e-03, -1.14049288e-01, -5.78278171e-02,
+        1.51940031e-02, -2.02244236e-02, -4.42778405e-02,  1.01844922e-01,
+       -1.04691419e-02,  2.80338192e-02,  1.45365042e-02, -2.64704585e-02,
+       -5.19682575e-02,  3.76292628e-02,  1.08920425e-02, -3.08706359e-02,
+        3.79635046e-03,  3.97764734e-02,  4.82584972e-03, -1.49077100e-03,
+       -4.35026133e-03, -1.07009425e-04, -5.41858171e-04, -4.16682533e-04]), array([[-0.1766213 ,  0.23205945],
+       [ 0.11084031,  0.51952105],
+       [-0.18134031,  0.22734044],
+       [-0.01312257,  0.39555817],
+       [-0.08542688,  0.32325386],
+       [-0.06918713,  0.33949361],
+       [-0.19655781,  0.21212294],
+       [-0.38590663,  0.02277411],
+       [-0.15386569,  0.25481505],
+       [-0.34891545,  0.05976529],
+       [-0.19149566,  0.21718508],
+       [-0.19633403,  0.21234671],
+       [-0.16784939,  0.24083135],
+       [-0.16396498,  0.24471576],
+       [-0.3666043 ,  0.04207644],
+       [-0.29580873,  0.11287201],
+       [-0.30790234,  0.1007784 ],
+       [-0.38340908,  0.02527166],
+       [-0.37224789,  0.03643285],
+       [-0.08310534,  0.3255754 ],
+       [-0.2386669 ,  0.17001384],
+       [-0.20880488,  0.19987586],
+       [-0.13687633,  0.27180441],
+       [-0.14013664,  0.2685441 ],
+       [-0.23118662,  0.17749412],
+       [-0.09733359,  0.31134716],
+       [-0.18918195,  0.21949879],
+       [-0.33020906,  0.07847169],
+       [-0.26493149,  0.14374925],
+       [-0.26834392,  0.14033682],
+       [-0.16742737,  0.24125338],
+       [-0.34566108,  0.06301966],
+       [-0.26606462,  0.14261612],
+       [-0.29564889,  0.11303185],
+       [-0.17905813,  0.22962261],
+       [-0.2100302 ,  0.19865054],
+       [-0.18641571,  0.22226503],
+       [-0.2370036 ,  0.17167714],
+       [-0.29687948,  0.11180126],
+       [-0.22743505,  0.18124569],
+       [-0.27823649,  0.13044426],
+       [-0.03668092,  0.37199982],
+       [-0.29998567,  0.10869507],
+       [-0.28997017,  0.11871057],
+       [-0.19433972,  0.21434102],
+       [-0.23505041,  0.17363033],
+       [-0.02887264,  0.3798081 ],
+       [-0.08854232,  0.32013842],
+       [-0.22453769,  0.18414305],
+       [-0.37234761,  0.03633314],
+       [-0.09687086,  0.31180988],
+       [-0.10708186,  0.30159889],
+       [-0.34723304,  0.06144771],
+       [-0.17286716,  0.23581358],
+       [-0.20815352,  0.20052722],
+       [-0.33001921,  0.07866153],
+       [-0.137903  ,  0.27077775],
+       [-0.07472937,  0.33395137],
+       [-0.28088455,  0.1277962 ],
+       [-0.19795604,  0.2107247 ],
+       [-0.15649456,  0.25218619],
+       [-0.32196475,  0.08671599],
+       [-0.25433757,  0.15434317],
+       [-0.03681915,  0.3718616 ],
+       [-0.19870823,  0.20997251],
+       [-0.16704359,  0.24163715],
+       [-0.13286987,  0.27581087],
+       [-0.20303044,  0.2056503 ],
+       [-0.12123747,  0.28744327],
+       [-0.20738556,  0.20129518],
+       [-0.31838966,  0.09029108],
+       [-0.26216819,  0.14651255],
+       [-0.18914637,  0.21953437],
+       [-0.22456479,  0.18411595],
+       [-0.24861821,  0.16006253],
+       [-0.10249545,  0.30618529],
+       [-0.21480951,  0.19387123],
+       [-0.17630655,  0.23237419],
+       [-0.18980387,  0.21887688],
+       [-0.23081083,  0.17786991],
+       [-0.25630863,  0.15237211],
+       [-0.16671111,  0.24196963],
+       [-0.19344833,  0.21523241],
+       [-0.23521101,  0.17346973],
+       [-0.20054402,  0.20813672],
+       [-0.1645639 ,  0.24411684],
+       [-0.19951452,  0.20916622],
+       [-0.20583114,  0.2028496 ],
+       [-0.20869063,  0.19999011],
+       [-0.20444738,  0.20423336],
+       [-0.20488223,  0.20379851],
+       [-0.20475705,  0.20392369]]))</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.01016943048018764</v>
+        <v>0.02771907417490456</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9237814087391832</v>
+        <v>0.7931000033761768</v>
       </c>
     </row>
     <row r="9">
@@ -994,14 +1534,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[-0.5372378   0.37525265  0.63328638 -0.4593972 ]</t>
+          <t>(array([ 0.1067154 ,  0.08113868, -0.64422152,  0.7428663 , -0.15761073]), array([[-0.76980714,  0.98323794],
+       [-0.79538386,  0.95766122],
+       [-1.52074406,  0.23230102],
+       [-0.13365624,  1.61938884],
+       [-1.03413327,  0.71891181]]))</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.5372377997966188</v>
+        <v>0.1067153986154797</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4627622002033811</v>
+        <v>0.8643840701410742</v>
       </c>
     </row>
   </sheetData>

--- a/data/results/daily_model/daily_model_results.xlsx
+++ b/data/results/daily_model/daily_model_results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,11 +444,51 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>TOTALENERGIES SE</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>64.36430317848411</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>FMC CORP</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>75.67237163814181</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>BP PLC</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.7041564792176</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>STORA ENSO</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.99266503667481</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>BHP GROUP</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>94.0234134319162</v>
+      <c r="B6" t="n">
+        <v>93.27628361858191</v>
       </c>
     </row>
   </sheetData>
@@ -462,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,15 +513,10 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Cross-Correlation</t>
+          <t>Pearson Correlation</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Pearson Correlation (need to stationarize)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>P-value</t>
         </is>
@@ -490,26 +525,66 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>TOTALENERGIES SE</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01566256551086196</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.600871449251472</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>FMC CORP</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01770014237732665</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5110361495306047</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>BP PLC</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.009638066301792383</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7001561347054477</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>STORA ENSO</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.01530076064468157</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5439945818950872</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>BHP GROUP</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>(array([ 2.35795909e-02, -3.80925242e-03,  4.43276351e-02, ...,
-       -5.87639818e-05, -2.92548581e-05,  1.44473427e-05]), array([[-0.02572865,  0.07288784],
-       [-0.0531175 ,  0.04549899],
-       [-0.00498061,  0.09363588],
-       ...,
-       [-0.04936701,  0.04924948],
-       [-0.0493375 ,  0.04927899],
-       [-0.0492938 ,  0.04932269]]))</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.02357959089236476</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3489341767463884</v>
+      <c r="B6" t="n">
+        <v>-0.01422839565825462</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5719727335739155</v>
       </c>
     </row>
   </sheetData>

--- a/data/results/daily_model/daily_model_results.xlsx
+++ b/data/results/daily_model/daily_model_results.xlsx
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01566256551086196</v>
+        <v>0.003965497605000926</v>
       </c>
       <c r="C2" t="n">
-        <v>0.600871449251472</v>
+        <v>0.8946326511334109</v>
       </c>
     </row>
     <row r="3">
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01770014237732665</v>
+        <v>0.01761390667490009</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5110361495306047</v>
+        <v>0.5130972201746452</v>
       </c>
     </row>
     <row r="4">
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009638066301792383</v>
+        <v>0.00659656811144087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7001561347054477</v>
+        <v>0.7921060061276305</v>
       </c>
     </row>
     <row r="5">
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01530076064468157</v>
+        <v>-0.01641953177946229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5439945818950872</v>
+        <v>0.5149454646398754</v>
       </c>
     </row>
     <row r="6">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01422839565825462</v>
+        <v>-0.02006732063360385</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5719727335739155</v>
+        <v>0.4253876190258129</v>
       </c>
     </row>
   </sheetData>

--- a/data/results/daily_model/daily_model_results.xlsx
+++ b/data/results/daily_model/daily_model_results.xlsx
@@ -7,8 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Model Accuracy" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Signal Market Correlation" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Model Accuracy (-1.0, 1.0, 1.0)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Confusion Matrix TOTALENERGIES SE (-1.0, 1.0, 1.0)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Confusion Matrix FMC CORP (-1.0, 1.0, 1.0)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Confusion Matrix BP PLC (-1.0, 1.0, 1.0)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Confusion Matrix STORA ENSO (-1.0, 1.0, 1.0)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Confusion Matrix BHP GROUP (-1.0, 1.0, 1.0)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Signal Market Correlation (-1.0, 1.0, 1.0)" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,7 +453,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.36430317848411</v>
+        <v>19.74327628361858</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +463,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.67237163814181</v>
+        <v>21.5158924205379</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +473,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.7041564792176</v>
+        <v>25.79462102689487</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +483,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.99266503667481</v>
+        <v>21.0880195599022</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +493,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.27628361858191</v>
+        <v>22.49388753056235</v>
       </c>
     </row>
   </sheetData>
@@ -497,6 +502,426 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Positive</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Neutral</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Positive</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Neutral</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>424</v>
+      </c>
+      <c r="C3" t="n">
+        <v>323</v>
+      </c>
+      <c r="D3" t="n">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Negative</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Positive</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Neutral</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Positive</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Neutral</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>532</v>
+      </c>
+      <c r="C3" t="n">
+        <v>352</v>
+      </c>
+      <c r="D3" t="n">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Negative</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Positive</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Neutral</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Positive</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Neutral</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>603</v>
+      </c>
+      <c r="C3" t="n">
+        <v>422</v>
+      </c>
+      <c r="D3" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Negative</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Positive</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Neutral</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Positive</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Neutral</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>634</v>
+      </c>
+      <c r="C3" t="n">
+        <v>345</v>
+      </c>
+      <c r="D3" t="n">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Negative</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Positive</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Neutral</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Actual Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Positive</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Neutral</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>643</v>
+      </c>
+      <c r="C3" t="n">
+        <v>368</v>
+      </c>
+      <c r="D3" t="n">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Predicted Negative</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
